--- a/data/activeStatsFilled.xlsx
+++ b/data/activeStatsFilled.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victornorris/Code/projects/gatsbyTraining/crashCourse/mlModels/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A79E80-9E78-6941-B713-5105F244189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1500" windowWidth="16580" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -260,13 +254,100 @@
   </si>
   <si>
     <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>J'Mon Moore</t>
+  </si>
+  <si>
+    <t>Jaleeel Scott</t>
+  </si>
+  <si>
+    <t>DaeSean Hamilton</t>
+  </si>
+  <si>
+    <t>Antonio Callaway</t>
+  </si>
+  <si>
+    <t>Keke Coutee</t>
+  </si>
+  <si>
+    <t>Tre'Quan Smith</t>
+  </si>
+  <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>DJ Chark</t>
+  </si>
+  <si>
+    <t>James Washington</t>
+  </si>
+  <si>
+    <t>Anthony Miller</t>
+  </si>
+  <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Dante Pettis</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
+    <t>Calvin Ridley</t>
+  </si>
+  <si>
+    <t>D.J. Moore</t>
+  </si>
+  <si>
+    <t>Trey Quinn</t>
+  </si>
+  <si>
+    <t>Auden Tate</t>
+  </si>
+  <si>
+    <t>Richie James</t>
+  </si>
+  <si>
+    <t>Marcel Ateman</t>
+  </si>
+  <si>
+    <t>Javon Wims</t>
+  </si>
+  <si>
+    <t>Braxton Berrios</t>
+  </si>
+  <si>
+    <t>Cedric Wilson</t>
+  </si>
+  <si>
+    <t>Equanimeous St. Brown</t>
+  </si>
+  <si>
+    <t>Russel Gage</t>
+  </si>
+  <si>
+    <t>Ray-Ray McCloud</t>
+  </si>
+  <si>
+    <t>Deon Cain</t>
+  </si>
+  <si>
+    <t>Marquez Valdez-Scantling</t>
+  </si>
+  <si>
+    <t>Justin Watson</t>
+  </si>
+  <si>
+    <t>Allen Lazard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,21 +410,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -381,7 +454,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -415,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,10 +522,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,16 +697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -750,10 +819,10 @@
         <v>120</v>
       </c>
       <c r="O2">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P2">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q2">
         <v>51</v>
@@ -777,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -791,7 +860,7 @@
         <v>175.26</v>
       </c>
       <c r="E3">
-        <v>85.275295999999997</v>
+        <v>85.275296</v>
       </c>
       <c r="F3">
         <v>231</v>
@@ -809,7 +878,7 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="L3">
         <v>36.5</v>
@@ -824,7 +893,7 @@
         <v>6.95</v>
       </c>
       <c r="P3">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q3">
         <v>62</v>
@@ -848,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -862,7 +931,7 @@
         <v>193.04</v>
       </c>
       <c r="E4">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -880,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="K4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L4">
         <v>36</v>
@@ -919,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -933,7 +1002,7 @@
         <v>182.88</v>
       </c>
       <c r="E5">
-        <v>41.149140492800001</v>
+        <v>41.1491404928</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -954,19 +1023,19 @@
         <v>4.5</v>
       </c>
       <c r="L5">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M5">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N5">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O5">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P5">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q5">
         <v>25</v>
@@ -990,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1004,7 +1073,7 @@
         <v>190.5</v>
       </c>
       <c r="E6">
-        <v>44.235326029760003</v>
+        <v>44.23532602976</v>
       </c>
       <c r="F6">
         <v>234</v>
@@ -1013,7 +1082,7 @@
         <v>3045</v>
       </c>
       <c r="H6">
-        <v>13.012820512820509</v>
+        <v>13.01282051282051</v>
       </c>
       <c r="I6">
         <v>22</v>
@@ -1025,19 +1094,19 @@
         <v>4.53</v>
       </c>
       <c r="L6">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M6">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N6">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O6">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P6">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q6">
         <v>81</v>
@@ -1061,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1144,7 @@
         <v>187.96</v>
       </c>
       <c r="E7">
-        <v>41.149140492800001</v>
+        <v>41.1491404928</v>
       </c>
       <c r="F7">
         <v>173</v>
@@ -1105,10 +1174,10 @@
         <v>124</v>
       </c>
       <c r="O7">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P7">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q7">
         <v>17</v>
@@ -1132,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1215,7 @@
         <v>193.04</v>
       </c>
       <c r="E8">
-        <v>48.967477186431999</v>
+        <v>48.967477186432</v>
       </c>
       <c r="F8">
         <v>150</v>
@@ -1155,7 +1224,7 @@
         <v>2159</v>
       </c>
       <c r="H8">
-        <v>14.393333333333331</v>
+        <v>14.39333333333333</v>
       </c>
       <c r="I8">
         <v>19</v>
@@ -1176,10 +1245,10 @@
         <v>126</v>
       </c>
       <c r="O8">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P8">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q8">
         <v>49</v>
@@ -1203,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1286,7 @@
         <v>198.12</v>
       </c>
       <c r="E9">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F9">
         <v>188</v>
@@ -1226,7 +1295,7 @@
         <v>2623</v>
       </c>
       <c r="H9">
-        <v>13.952127659574471</v>
+        <v>13.95212765957447</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1238,19 +1307,19 @@
         <v>4.58</v>
       </c>
       <c r="L9">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M9">
         <v>17</v>
       </c>
       <c r="N9">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O9">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P9">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q9">
         <v>165</v>
@@ -1274,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1366,7 @@
         <v>1228</v>
       </c>
       <c r="H10">
-        <v>18.328358208955219</v>
+        <v>18.32835820895522</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1345,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1437,7 @@
         <v>1605</v>
       </c>
       <c r="H11">
-        <v>20.316455696202532</v>
+        <v>20.31645569620253</v>
       </c>
       <c r="I11">
         <v>11</v>
@@ -1377,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="K11">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L11">
         <v>40.5</v>
@@ -1392,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q11">
         <v>171</v>
@@ -1416,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1430,7 +1499,7 @@
         <v>180.34</v>
       </c>
       <c r="E12">
-        <v>35.594006526271997</v>
+        <v>35.594006526272</v>
       </c>
       <c r="F12">
         <v>154</v>
@@ -1460,10 +1529,10 @@
         <v>124</v>
       </c>
       <c r="O12">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P12">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q12">
         <v>173</v>
@@ -1487,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1570,7 @@
         <v>182.88</v>
       </c>
       <c r="E13">
-        <v>97.522279999999995</v>
+        <v>97.52227999999999</v>
       </c>
       <c r="F13">
         <v>148</v>
@@ -1519,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L13">
         <v>39</v>
@@ -1534,7 +1603,7 @@
         <v>7.03</v>
       </c>
       <c r="P13">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="Q13">
         <v>36</v>
@@ -1558,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1641,7 @@
         <v>190.5</v>
       </c>
       <c r="E14">
-        <v>42.589360410048002</v>
+        <v>42.589360410048</v>
       </c>
       <c r="F14">
         <v>186</v>
@@ -1629,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1643,7 +1712,7 @@
         <v>180.34</v>
       </c>
       <c r="E15">
-        <v>41.560631897728001</v>
+        <v>41.560631897728</v>
       </c>
       <c r="F15">
         <v>176</v>
@@ -1661,13 +1730,13 @@
         <v>45</v>
       </c>
       <c r="K15">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L15">
         <v>35.5</v>
       </c>
       <c r="M15">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N15">
         <v>123</v>
@@ -1700,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1783,7 @@
         <v>193.04</v>
       </c>
       <c r="E16">
-        <v>46.292783054399997</v>
+        <v>46.2927830544</v>
       </c>
       <c r="F16">
         <v>156</v>
@@ -1732,7 +1801,7 @@
         <v>36</v>
       </c>
       <c r="K16">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L16">
         <v>36</v>
@@ -1771,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1854,7 @@
         <v>177.8</v>
       </c>
       <c r="E17">
-        <v>83.007335999999995</v>
+        <v>83.007336</v>
       </c>
       <c r="F17">
         <v>135</v>
@@ -1794,7 +1863,7 @@
         <v>2235</v>
       </c>
       <c r="H17">
-        <v>16.555555555555561</v>
+        <v>16.55555555555556</v>
       </c>
       <c r="I17">
         <v>23</v>
@@ -1824,7 +1893,7 @@
         <v>66</v>
       </c>
       <c r="R17">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="S17">
         <v>7</v>
@@ -1842,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1856,7 +1925,7 @@
         <v>187.96</v>
       </c>
       <c r="E18">
-        <v>41.972123302656001</v>
+        <v>41.972123302656</v>
       </c>
       <c r="F18">
         <v>103</v>
@@ -1874,28 +1943,28 @@
         <v>47</v>
       </c>
       <c r="K18">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L18">
         <v>44.5</v>
       </c>
       <c r="M18">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N18">
         <v>139</v>
       </c>
       <c r="O18">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P18">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q18">
         <v>187</v>
       </c>
       <c r="R18">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="S18">
         <v>5.333333333333333</v>
@@ -1913,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +1996,7 @@
         <v>182.88</v>
       </c>
       <c r="E19">
-        <v>40.943394790336001</v>
+        <v>40.943394790336</v>
       </c>
       <c r="F19">
         <v>68</v>
@@ -1936,7 +2005,7 @@
         <v>996</v>
       </c>
       <c r="H19">
-        <v>14.647058823529409</v>
+        <v>14.64705882352941</v>
       </c>
       <c r="I19">
         <v>15</v>
@@ -1984,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1998,7 +2067,7 @@
         <v>190.5</v>
       </c>
       <c r="E20">
-        <v>43.618088922368003</v>
+        <v>43.618088922368</v>
       </c>
       <c r="F20">
         <v>157</v>
@@ -2007,7 +2076,7 @@
         <v>2447</v>
       </c>
       <c r="H20">
-        <v>15.585987261146499</v>
+        <v>15.5859872611465</v>
       </c>
       <c r="I20">
         <v>23</v>
@@ -2055,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2069,7 +2138,7 @@
         <v>185.42</v>
       </c>
       <c r="E21">
-        <v>97.975871999999995</v>
+        <v>97.975872</v>
       </c>
       <c r="F21">
         <v>168</v>
@@ -2102,7 +2171,7 @@
         <v>7.32</v>
       </c>
       <c r="P21">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q21">
         <v>120</v>
@@ -2126,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2149,7 +2218,7 @@
         <v>2149</v>
       </c>
       <c r="H22">
-        <v>19.536363636363639</v>
+        <v>19.53636363636364</v>
       </c>
       <c r="I22">
         <v>18</v>
@@ -2158,7 +2227,7 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L22">
         <v>36</v>
@@ -2170,10 +2239,10 @@
         <v>128</v>
       </c>
       <c r="O22">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P22">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q22">
         <v>103</v>
@@ -2197,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2211,7 +2280,7 @@
         <v>182.88</v>
       </c>
       <c r="E23">
-        <v>39.091683468159999</v>
+        <v>39.09168346816</v>
       </c>
       <c r="F23">
         <v>98</v>
@@ -2220,7 +2289,7 @@
         <v>1716</v>
       </c>
       <c r="H23">
-        <v>17.510204081632651</v>
+        <v>17.51020408163265</v>
       </c>
       <c r="I23">
         <v>24</v>
@@ -2229,28 +2298,28 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="L23">
         <v>42</v>
       </c>
       <c r="M23">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N23">
         <v>131</v>
       </c>
       <c r="O23">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P23">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q23">
         <v>12</v>
       </c>
       <c r="R23">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="S23">
         <v>2.666666666666667</v>
@@ -2268,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2282,7 +2351,7 @@
         <v>177.8</v>
       </c>
       <c r="E24">
-        <v>83.914519999999996</v>
+        <v>83.91452</v>
       </c>
       <c r="F24">
         <v>186</v>
@@ -2315,13 +2384,13 @@
         <v>6.8</v>
       </c>
       <c r="P24">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="Q24">
         <v>149</v>
       </c>
       <c r="R24">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="S24">
         <v>5</v>
@@ -2339,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2353,7 +2422,7 @@
         <v>193.04</v>
       </c>
       <c r="E25">
-        <v>43.000851814976002</v>
+        <v>43.000851814976</v>
       </c>
       <c r="F25">
         <v>176</v>
@@ -2371,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="L25">
         <v>36.5</v>
@@ -2392,7 +2461,7 @@
         <v>207</v>
       </c>
       <c r="R25">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2410,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2502,7 @@
         <v>2248</v>
       </c>
       <c r="H26">
-        <v>15.189189189189189</v>
+        <v>15.18918918918919</v>
       </c>
       <c r="I26">
         <v>22</v>
@@ -2481,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2495,7 +2564,7 @@
         <v>180.34</v>
       </c>
       <c r="E27">
-        <v>39.091683468159999</v>
+        <v>39.09168346816</v>
       </c>
       <c r="F27">
         <v>301</v>
@@ -2522,13 +2591,13 @@
         <v>20</v>
       </c>
       <c r="N27">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O27">
         <v>7.27</v>
       </c>
       <c r="P27">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Q27">
         <v>201</v>
@@ -2552,7 +2621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2566,7 +2635,7 @@
         <v>190.5</v>
       </c>
       <c r="E28">
-        <v>43.618088922368003</v>
+        <v>43.618088922368</v>
       </c>
       <c r="F28">
         <v>146</v>
@@ -2590,16 +2659,16 @@
         <v>29</v>
       </c>
       <c r="M28">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N28">
         <v>119</v>
       </c>
       <c r="O28">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P28">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q28">
         <v>217</v>
@@ -2623,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2646,7 +2715,7 @@
         <v>2742</v>
       </c>
       <c r="H29">
-        <v>17.245283018867919</v>
+        <v>17.24528301886792</v>
       </c>
       <c r="I29">
         <v>26</v>
@@ -2661,13 +2730,13 @@
         <v>35</v>
       </c>
       <c r="M29">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N29">
         <v>129</v>
       </c>
       <c r="O29">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P29">
         <v>4.53</v>
@@ -2676,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="R29">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="S29">
         <v>5.333333333333333</v>
@@ -2694,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2729,19 +2798,19 @@
         <v>4.5</v>
       </c>
       <c r="L30">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M30">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N30">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O30">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P30">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q30">
         <v>57</v>
@@ -2765,7 +2834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2779,7 +2848,7 @@
         <v>185.42</v>
       </c>
       <c r="E31">
-        <v>44.235326029760003</v>
+        <v>44.23532602976</v>
       </c>
       <c r="F31">
         <v>129</v>
@@ -2788,7 +2857,7 @@
         <v>1465</v>
       </c>
       <c r="H31">
-        <v>11.356589147286821</v>
+        <v>11.35658914728682</v>
       </c>
       <c r="I31">
         <v>16</v>
@@ -2809,10 +2878,10 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P31">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q31">
         <v>151</v>
@@ -2836,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2850,7 +2919,7 @@
         <v>187.96</v>
       </c>
       <c r="E32">
-        <v>37.651463550911998</v>
+        <v>37.651463550912</v>
       </c>
       <c r="F32">
         <v>82</v>
@@ -2859,7 +2928,7 @@
         <v>1447</v>
       </c>
       <c r="H32">
-        <v>17.646341463414629</v>
+        <v>17.64634146341463</v>
       </c>
       <c r="I32">
         <v>14</v>
@@ -2874,7 +2943,7 @@
         <v>38.5</v>
       </c>
       <c r="M32">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N32">
         <v>122</v>
@@ -2892,7 +2961,7 @@
         <v>50.5</v>
       </c>
       <c r="S32">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2907,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -2921,7 +2990,7 @@
         <v>175.26</v>
       </c>
       <c r="E33">
-        <v>82.553743999999995</v>
+        <v>82.55374399999999</v>
       </c>
       <c r="F33">
         <v>189</v>
@@ -2930,7 +2999,7 @@
         <v>2662</v>
       </c>
       <c r="H33">
-        <v>14.084656084656091</v>
+        <v>14.08465608465609</v>
       </c>
       <c r="I33">
         <v>24</v>
@@ -2939,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="K33">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="L33">
         <v>37</v>
@@ -2978,7 +3047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -3016,22 +3085,22 @@
         <v>37.5</v>
       </c>
       <c r="M34">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N34">
         <v>126</v>
       </c>
       <c r="O34">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P34">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q34">
         <v>22</v>
       </c>
       <c r="R34">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="S34">
         <v>13</v>
@@ -3049,7 +3118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -3063,7 +3132,7 @@
         <v>185.42</v>
       </c>
       <c r="E35">
-        <v>95.254319999999993</v>
+        <v>95.25431999999999</v>
       </c>
       <c r="F35">
         <v>60</v>
@@ -3081,22 +3150,22 @@
         <v>21</v>
       </c>
       <c r="K35">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L35">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M35">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N35">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O35">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P35">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q35">
         <v>187</v>
@@ -3120,7 +3189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -3134,7 +3203,7 @@
         <v>182.88</v>
       </c>
       <c r="E36">
-        <v>40.737649087872001</v>
+        <v>40.737649087872</v>
       </c>
       <c r="F36">
         <v>201</v>
@@ -3152,7 +3221,7 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L36">
         <v>32.5</v>
@@ -3164,10 +3233,10 @@
         <v>114</v>
       </c>
       <c r="O36">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P36">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q36">
         <v>220</v>
@@ -3176,7 +3245,7 @@
         <v>67</v>
       </c>
       <c r="S36">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3191,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -3205,7 +3274,7 @@
         <v>180.34</v>
       </c>
       <c r="E37">
-        <v>41.766377600192001</v>
+        <v>41.766377600192</v>
       </c>
       <c r="F37">
         <v>146</v>
@@ -3214,7 +3283,7 @@
         <v>2037</v>
       </c>
       <c r="H37">
-        <v>13.952054794520549</v>
+        <v>13.95205479452055</v>
       </c>
       <c r="I37">
         <v>17</v>
@@ -3223,7 +3292,7 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L37">
         <v>37.5</v>
@@ -3238,13 +3307,13 @@
         <v>7</v>
       </c>
       <c r="P37">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="Q37">
         <v>176</v>
       </c>
       <c r="R37">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="S37">
         <v>3.333333333333333</v>
@@ -3262,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3276,7 +3345,7 @@
         <v>185.42</v>
       </c>
       <c r="E38">
-        <v>91.171992000000003</v>
+        <v>91.171992</v>
       </c>
       <c r="F38">
         <v>275</v>
@@ -3294,7 +3363,7 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L38">
         <v>30</v>
@@ -3309,7 +3378,7 @@
         <v>7.28</v>
       </c>
       <c r="P38">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="Q38">
         <v>174</v>
@@ -3333,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3365,7 +3434,7 @@
         <v>35</v>
       </c>
       <c r="K39">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L39">
         <v>32.5</v>
@@ -3404,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -3418,7 +3487,7 @@
         <v>175.26</v>
       </c>
       <c r="E40">
-        <v>35.594006526271997</v>
+        <v>35.594006526272</v>
       </c>
       <c r="F40">
         <v>98</v>
@@ -3436,22 +3505,22 @@
         <v>26</v>
       </c>
       <c r="K40">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="L40">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M40">
         <v>15</v>
       </c>
       <c r="N40">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O40">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P40">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q40">
         <v>46</v>
@@ -3475,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3489,7 +3558,7 @@
         <v>187.96</v>
       </c>
       <c r="E41">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F41">
         <v>149</v>
@@ -3510,19 +3579,19 @@
         <v>4.58</v>
       </c>
       <c r="L41">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M41">
         <v>17</v>
       </c>
       <c r="N41">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O41">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P41">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q41">
         <v>42</v>
@@ -3546,7 +3615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -3560,7 +3629,7 @@
         <v>180.34</v>
       </c>
       <c r="E42">
-        <v>40.943394790336001</v>
+        <v>40.943394790336</v>
       </c>
       <c r="F42">
         <v>114</v>
@@ -3581,19 +3650,19 @@
         <v>4.45</v>
       </c>
       <c r="L42">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M42">
         <v>13</v>
       </c>
       <c r="N42">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O42">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P42">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q42">
         <v>80</v>
@@ -3602,7 +3671,7 @@
         <v>68.8</v>
       </c>
       <c r="S42">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T42">
         <v>2</v>
@@ -3617,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3631,7 +3700,7 @@
         <v>175.26</v>
       </c>
       <c r="E43">
-        <v>77.110640000000004</v>
+        <v>77.11064</v>
       </c>
       <c r="F43">
         <v>132</v>
@@ -3640,7 +3709,7 @@
         <v>2413</v>
       </c>
       <c r="H43">
-        <v>18.280303030303031</v>
+        <v>18.28030303030303</v>
       </c>
       <c r="I43">
         <v>17</v>
@@ -3652,19 +3721,19 @@
         <v>4.33</v>
       </c>
       <c r="L43">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M43">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N43">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O43">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P43">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q43">
         <v>25</v>
@@ -3688,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -3702,7 +3771,7 @@
         <v>177.8</v>
       </c>
       <c r="E44">
-        <v>84.821703999999997</v>
+        <v>84.821704</v>
       </c>
       <c r="F44">
         <v>60</v>
@@ -3711,7 +3780,7 @@
         <v>961</v>
       </c>
       <c r="H44">
-        <v>16.016666666666669</v>
+        <v>16.01666666666667</v>
       </c>
       <c r="I44">
         <v>11</v>
@@ -3732,16 +3801,16 @@
         <v>119</v>
       </c>
       <c r="O44">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P44">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q44">
         <v>56</v>
       </c>
       <c r="R44">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="S44">
         <v>5.5</v>
@@ -3759,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -3773,7 +3842,7 @@
         <v>193.04</v>
       </c>
       <c r="E45">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F45">
         <v>171</v>
@@ -3791,7 +3860,7 @@
         <v>41</v>
       </c>
       <c r="K45">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="L45">
         <v>36.5</v>
@@ -3806,13 +3875,13 @@
         <v>6.96</v>
       </c>
       <c r="P45">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="Q45">
         <v>34</v>
       </c>
       <c r="R45">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="S45">
         <v>7.666666666666667</v>
@@ -3830,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -3844,7 +3913,7 @@
         <v>193.04</v>
       </c>
       <c r="E46">
-        <v>99.790239999999997</v>
+        <v>99.79024</v>
       </c>
       <c r="F46">
         <v>77</v>
@@ -3853,7 +3922,7 @@
         <v>1206</v>
       </c>
       <c r="H46">
-        <v>15.662337662337659</v>
+        <v>15.66233766233766</v>
       </c>
       <c r="I46">
         <v>11</v>
@@ -3901,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -3945,16 +4014,16 @@
         <v>122</v>
       </c>
       <c r="O47">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P47">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q47">
         <v>32</v>
       </c>
       <c r="R47">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="S47">
         <v>1.75</v>
@@ -3972,7 +4041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -3986,7 +4055,7 @@
         <v>182.88</v>
       </c>
       <c r="E48">
-        <v>92.532768000000004</v>
+        <v>92.532768</v>
       </c>
       <c r="F48">
         <v>125</v>
@@ -3995,7 +4064,7 @@
         <v>2019</v>
       </c>
       <c r="H48">
-        <v>16.152000000000001</v>
+        <v>16.152</v>
       </c>
       <c r="I48">
         <v>11</v>
@@ -4043,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -4057,7 +4126,7 @@
         <v>182.88</v>
       </c>
       <c r="E49">
-        <v>94.347136000000006</v>
+        <v>94.34713600000001</v>
       </c>
       <c r="F49">
         <v>143</v>
@@ -4075,7 +4144,7 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="L49">
         <v>40</v>
@@ -4087,7 +4156,7 @@
         <v>135</v>
       </c>
       <c r="O49">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P49">
         <v>4.03</v>
@@ -4114,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -4137,7 +4206,7 @@
         <v>2404</v>
       </c>
       <c r="H50">
-        <v>15.119496855345909</v>
+        <v>15.11949685534591</v>
       </c>
       <c r="I50">
         <v>17</v>
@@ -4146,13 +4215,13 @@
         <v>34</v>
       </c>
       <c r="K50">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="L50">
         <v>36.5</v>
       </c>
       <c r="M50">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N50">
         <v>125</v>
@@ -4161,7 +4230,7 @@
         <v>7.28</v>
       </c>
       <c r="P50">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="Q50">
         <v>200</v>
@@ -4185,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -4199,7 +4268,7 @@
         <v>185.42</v>
       </c>
       <c r="E51">
-        <v>42.795106112512002</v>
+        <v>42.795106112512</v>
       </c>
       <c r="F51">
         <v>93</v>
@@ -4217,7 +4286,7 @@
         <v>30</v>
       </c>
       <c r="K51">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="L51">
         <v>38.5</v>
@@ -4256,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -4270,7 +4339,7 @@
         <v>185.42</v>
       </c>
       <c r="E52">
-        <v>90.264808000000002</v>
+        <v>90.264808</v>
       </c>
       <c r="F52">
         <v>69</v>
@@ -4279,7 +4348,7 @@
         <v>1015</v>
       </c>
       <c r="H52">
-        <v>14.710144927536231</v>
+        <v>14.71014492753623</v>
       </c>
       <c r="I52">
         <v>13</v>
@@ -4327,7 +4396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -4341,7 +4410,7 @@
         <v>175.26</v>
       </c>
       <c r="E53">
-        <v>78.925008000000005</v>
+        <v>78.92500800000001</v>
       </c>
       <c r="F53">
         <v>215</v>
@@ -4350,7 +4419,7 @@
         <v>2867</v>
       </c>
       <c r="H53">
-        <v>13.334883720930231</v>
+        <v>13.33488372093023</v>
       </c>
       <c r="I53">
         <v>23</v>
@@ -4359,7 +4428,7 @@
         <v>45</v>
       </c>
       <c r="K53">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="L53">
         <v>34</v>
@@ -4374,7 +4443,7 @@
         <v>6.97</v>
       </c>
       <c r="P53">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="Q53">
         <v>208</v>
@@ -4398,7 +4467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -4412,7 +4481,7 @@
         <v>193.04</v>
       </c>
       <c r="E54">
-        <v>45.058308839615997</v>
+        <v>45.058308839616</v>
       </c>
       <c r="F54">
         <v>135</v>
@@ -4421,7 +4490,7 @@
         <v>2448</v>
       </c>
       <c r="H54">
-        <v>18.133333333333329</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="I54">
         <v>27</v>
@@ -4433,28 +4502,28 @@
         <v>4.54</v>
       </c>
       <c r="L54">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M54">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N54">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O54">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P54">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q54">
         <v>33</v>
       </c>
       <c r="R54">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="S54">
-        <v>8.6666666666666661</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="T54">
         <v>26</v>
@@ -4469,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -4483,7 +4552,7 @@
         <v>180.34</v>
       </c>
       <c r="E55">
-        <v>83.914519999999996</v>
+        <v>83.91452</v>
       </c>
       <c r="F55">
         <v>134</v>
@@ -4492,7 +4561,7 @@
         <v>1800</v>
       </c>
       <c r="H55">
-        <v>13.432835820895519</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="I55">
         <v>11</v>
@@ -4507,7 +4576,7 @@
         <v>36.5</v>
       </c>
       <c r="M55">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N55">
         <v>117</v>
@@ -4516,7 +4585,7 @@
         <v>6.96</v>
       </c>
       <c r="P55">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q55">
         <v>237</v>
@@ -4540,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -4554,7 +4623,7 @@
         <v>182.88</v>
       </c>
       <c r="E56">
-        <v>95.254319999999993</v>
+        <v>95.25431999999999</v>
       </c>
       <c r="F56">
         <v>75</v>
@@ -4572,7 +4641,7 @@
         <v>44</v>
       </c>
       <c r="K56">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="L56">
         <v>37.5</v>
@@ -4587,13 +4656,13 @@
         <v>7.01</v>
       </c>
       <c r="P56">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q56">
         <v>76</v>
       </c>
       <c r="R56">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="S56">
         <v>7.75</v>
@@ -4611,7 +4680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -4625,7 +4694,7 @@
         <v>190.5</v>
       </c>
       <c r="E57">
-        <v>97.522279999999995</v>
+        <v>97.52227999999999</v>
       </c>
       <c r="F57">
         <v>128</v>
@@ -4655,10 +4724,10 @@
         <v>126</v>
       </c>
       <c r="O57">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P57">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q57">
         <v>184</v>
@@ -4682,7 +4751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -4696,7 +4765,7 @@
         <v>185.42</v>
       </c>
       <c r="E58">
-        <v>42.383614707584002</v>
+        <v>42.383614707584</v>
       </c>
       <c r="F58">
         <v>213</v>
@@ -4717,19 +4786,19 @@
         <v>4.7</v>
       </c>
       <c r="L58">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M58">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N58">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O58">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P58">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q58">
         <v>161</v>
@@ -4753,7 +4822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -4767,7 +4836,7 @@
         <v>185.42</v>
       </c>
       <c r="E59">
-        <v>41.149140492800001</v>
+        <v>41.1491404928</v>
       </c>
       <c r="F59">
         <v>175</v>
@@ -4785,28 +4854,28 @@
         <v>45</v>
       </c>
       <c r="K59">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L59">
-        <v>36.826086956521742</v>
+        <v>36.47945205479452</v>
       </c>
       <c r="M59">
-        <v>16.09756097560976</v>
+        <v>15.703125</v>
       </c>
       <c r="N59">
-        <v>125.06666666666671</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O59">
-        <v>7.0736666666666661</v>
+        <v>7.003725490196078</v>
       </c>
       <c r="P59">
-        <v>4.2841935483870968</v>
+        <v>4.273137254901961</v>
       </c>
       <c r="Q59">
         <v>57</v>
       </c>
       <c r="R59">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="S59">
         <v>4.333333333333333</v>
@@ -4822,6 +4891,2065 @@
       </c>
       <c r="W59">
         <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>2018</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>190.5</v>
+      </c>
+      <c r="E60">
+        <v>93.89354400000001</v>
+      </c>
+      <c r="F60">
+        <v>158</v>
+      </c>
+      <c r="G60">
+        <v>2477</v>
+      </c>
+      <c r="H60">
+        <v>15.67721518987342</v>
+      </c>
+      <c r="I60">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>47</v>
+      </c>
+      <c r="K60">
+        <v>4.6</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>120</v>
+      </c>
+      <c r="O60">
+        <v>6.56</v>
+      </c>
+      <c r="P60">
+        <v>4.04</v>
+      </c>
+      <c r="Q60">
+        <v>265</v>
+      </c>
+      <c r="R60">
+        <v>53.5</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V60">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <v>2018</v>
+      </c>
+      <c r="C61">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>195.58</v>
+      </c>
+      <c r="E61">
+        <v>98.883056</v>
+      </c>
+      <c r="F61">
+        <v>99</v>
+      </c>
+      <c r="G61">
+        <v>1362</v>
+      </c>
+      <c r="H61">
+        <v>13.75757575757576</v>
+      </c>
+      <c r="I61">
+        <v>14</v>
+      </c>
+      <c r="J61">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>4.56</v>
+      </c>
+      <c r="L61">
+        <v>34.5</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>124</v>
+      </c>
+      <c r="O61">
+        <v>7.2</v>
+      </c>
+      <c r="P61">
+        <v>4.4</v>
+      </c>
+      <c r="Q61">
+        <v>132</v>
+      </c>
+      <c r="R61">
+        <v>78.3</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V61">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>185.42</v>
+      </c>
+      <c r="E62">
+        <v>90.264808</v>
+      </c>
+      <c r="F62">
+        <v>214</v>
+      </c>
+      <c r="G62">
+        <v>2842</v>
+      </c>
+      <c r="H62">
+        <v>13.2803738317757</v>
+      </c>
+      <c r="I62">
+        <v>18</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>4.486705882352942</v>
+      </c>
+      <c r="L62">
+        <v>34.5</v>
+      </c>
+      <c r="M62">
+        <v>15.703125</v>
+      </c>
+      <c r="N62">
+        <v>118</v>
+      </c>
+      <c r="O62">
+        <v>6.84</v>
+      </c>
+      <c r="P62">
+        <v>4.15</v>
+      </c>
+      <c r="Q62">
+        <v>113</v>
+      </c>
+      <c r="R62">
+        <v>58.4</v>
+      </c>
+      <c r="S62">
+        <v>1.2</v>
+      </c>
+      <c r="T62">
+        <v>6</v>
+      </c>
+      <c r="U62">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V62">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>2018</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>180.34</v>
+      </c>
+      <c r="E63">
+        <v>90.7184</v>
+      </c>
+      <c r="F63">
+        <v>89</v>
+      </c>
+      <c r="G63">
+        <v>1399</v>
+      </c>
+      <c r="H63">
+        <v>15.71910112359551</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>26</v>
+      </c>
+      <c r="K63">
+        <v>4.41</v>
+      </c>
+      <c r="L63">
+        <v>43</v>
+      </c>
+      <c r="M63">
+        <v>15.703125</v>
+      </c>
+      <c r="N63">
+        <v>121</v>
+      </c>
+      <c r="O63">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P63">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q63">
+        <v>105</v>
+      </c>
+      <c r="R63">
+        <v>60.5</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+      <c r="U63">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V63">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>177.8</v>
+      </c>
+      <c r="E64">
+        <v>82.10015199999999</v>
+      </c>
+      <c r="F64">
+        <v>159</v>
+      </c>
+      <c r="G64">
+        <v>2424</v>
+      </c>
+      <c r="H64">
+        <v>15.24528301886792</v>
+      </c>
+      <c r="I64">
+        <v>17</v>
+      </c>
+      <c r="J64">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>4.43</v>
+      </c>
+      <c r="L64">
+        <v>34.5</v>
+      </c>
+      <c r="M64">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>113</v>
+      </c>
+      <c r="O64">
+        <v>6.93</v>
+      </c>
+      <c r="P64">
+        <v>4.15</v>
+      </c>
+      <c r="Q64">
+        <v>103</v>
+      </c>
+      <c r="R64">
+        <v>37.5</v>
+      </c>
+      <c r="S64">
+        <v>1.4</v>
+      </c>
+      <c r="T64">
+        <v>7</v>
+      </c>
+      <c r="U64">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V64">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65">
+        <v>2018</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>187.96</v>
+      </c>
+      <c r="E65">
+        <v>92.079176</v>
+      </c>
+      <c r="F65">
+        <v>168</v>
+      </c>
+      <c r="G65">
+        <v>2748</v>
+      </c>
+      <c r="H65">
+        <v>16.35714285714286</v>
+      </c>
+      <c r="I65">
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <v>37</v>
+      </c>
+      <c r="K65">
+        <v>4.49</v>
+      </c>
+      <c r="L65">
+        <v>37.5</v>
+      </c>
+      <c r="M65">
+        <v>12</v>
+      </c>
+      <c r="N65">
+        <v>130</v>
+      </c>
+      <c r="O65">
+        <v>6.97</v>
+      </c>
+      <c r="P65">
+        <v>4.5</v>
+      </c>
+      <c r="Q65">
+        <v>265</v>
+      </c>
+      <c r="R65">
+        <v>69</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>15</v>
+      </c>
+      <c r="U65">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V65">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66">
+        <v>2018</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>185.42</v>
+      </c>
+      <c r="E66">
+        <v>92.98636</v>
+      </c>
+      <c r="F66">
+        <v>176</v>
+      </c>
+      <c r="G66">
+        <v>2690</v>
+      </c>
+      <c r="H66">
+        <v>15.28409090909091</v>
+      </c>
+      <c r="I66">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>26</v>
+      </c>
+      <c r="K66">
+        <v>4.51</v>
+      </c>
+      <c r="L66">
+        <v>36</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>122</v>
+      </c>
+      <c r="O66">
+        <v>6.95</v>
+      </c>
+      <c r="P66">
+        <v>4.37</v>
+      </c>
+      <c r="Q66">
+        <v>81</v>
+      </c>
+      <c r="R66">
+        <v>62.8</v>
+      </c>
+      <c r="S66">
+        <v>5.2</v>
+      </c>
+      <c r="T66">
+        <v>26</v>
+      </c>
+      <c r="U66">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V66">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67">
+        <v>2018</v>
+      </c>
+      <c r="C67">
+        <v>21</v>
+      </c>
+      <c r="D67">
+        <v>190.5</v>
+      </c>
+      <c r="E67">
+        <v>90.264808</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>1351</v>
+      </c>
+      <c r="H67">
+        <v>20.46969696969697</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>4.34</v>
+      </c>
+      <c r="L67">
+        <v>40</v>
+      </c>
+      <c r="M67">
+        <v>16</v>
+      </c>
+      <c r="N67">
+        <v>129</v>
+      </c>
+      <c r="O67">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P67">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q67">
+        <v>61</v>
+      </c>
+      <c r="R67">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="S67">
+        <v>3.6</v>
+      </c>
+      <c r="T67">
+        <v>18</v>
+      </c>
+      <c r="U67">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V67">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68">
+        <v>2018</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>180.34</v>
+      </c>
+      <c r="E68">
+        <v>96.61509599999999</v>
+      </c>
+      <c r="F68">
+        <v>226</v>
+      </c>
+      <c r="G68">
+        <v>4472</v>
+      </c>
+      <c r="H68">
+        <v>19.78761061946903</v>
+      </c>
+      <c r="I68">
+        <v>39</v>
+      </c>
+      <c r="J68">
+        <v>51</v>
+      </c>
+      <c r="K68">
+        <v>4.54</v>
+      </c>
+      <c r="L68">
+        <v>34.5</v>
+      </c>
+      <c r="M68">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>120</v>
+      </c>
+      <c r="O68">
+        <v>7.11</v>
+      </c>
+      <c r="P68">
+        <v>4.32</v>
+      </c>
+      <c r="Q68">
+        <v>60</v>
+      </c>
+      <c r="R68">
+        <v>52.3</v>
+      </c>
+      <c r="S68">
+        <v>2.2</v>
+      </c>
+      <c r="T68">
+        <v>11</v>
+      </c>
+      <c r="U68">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V68">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69">
+        <v>2018</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>180.34</v>
+      </c>
+      <c r="E69">
+        <v>91.171992</v>
+      </c>
+      <c r="F69">
+        <v>238</v>
+      </c>
+      <c r="G69">
+        <v>3590</v>
+      </c>
+      <c r="H69">
+        <v>15.08403361344538</v>
+      </c>
+      <c r="I69">
+        <v>37</v>
+      </c>
+      <c r="J69">
+        <v>38</v>
+      </c>
+      <c r="K69">
+        <v>4.5</v>
+      </c>
+      <c r="L69">
+        <v>39</v>
+      </c>
+      <c r="M69">
+        <v>22</v>
+      </c>
+      <c r="N69">
+        <v>125</v>
+      </c>
+      <c r="O69">
+        <v>6.65</v>
+      </c>
+      <c r="P69">
+        <v>4.26</v>
+      </c>
+      <c r="Q69">
+        <v>51</v>
+      </c>
+      <c r="R69">
+        <v>61.9</v>
+      </c>
+      <c r="S69">
+        <v>2.4</v>
+      </c>
+      <c r="T69">
+        <v>12</v>
+      </c>
+      <c r="U69">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V69">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <v>2018</v>
+      </c>
+      <c r="C70">
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>177.8</v>
+      </c>
+      <c r="E70">
+        <v>91.171992</v>
+      </c>
+      <c r="F70">
+        <v>234</v>
+      </c>
+      <c r="G70">
+        <v>2856</v>
+      </c>
+      <c r="H70">
+        <v>12.2051282051282</v>
+      </c>
+      <c r="I70">
+        <v>26</v>
+      </c>
+      <c r="J70">
+        <v>39</v>
+      </c>
+      <c r="K70">
+        <v>4.47</v>
+      </c>
+      <c r="L70">
+        <v>35.5</v>
+      </c>
+      <c r="M70">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>115</v>
+      </c>
+      <c r="O70">
+        <v>7.09</v>
+      </c>
+      <c r="P70">
+        <v>4.45</v>
+      </c>
+      <c r="Q70">
+        <v>47</v>
+      </c>
+      <c r="R70">
+        <v>74.2</v>
+      </c>
+      <c r="S70">
+        <v>6.6</v>
+      </c>
+      <c r="T70">
+        <v>33</v>
+      </c>
+      <c r="U70">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V70">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>182.88</v>
+      </c>
+      <c r="E71">
+        <v>84.368112</v>
+      </c>
+      <c r="F71">
+        <v>163</v>
+      </c>
+      <c r="G71">
+        <v>2256</v>
+      </c>
+      <c r="H71">
+        <v>13.84049079754601</v>
+      </c>
+      <c r="I71">
+        <v>24</v>
+      </c>
+      <c r="J71">
+        <v>52</v>
+      </c>
+      <c r="K71">
+        <v>4.486705882352942</v>
+      </c>
+      <c r="L71">
+        <v>36.47945205479452</v>
+      </c>
+      <c r="M71">
+        <v>15.703125</v>
+      </c>
+      <c r="N71">
+        <v>123.1388888888889</v>
+      </c>
+      <c r="O71">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P71">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q71">
+        <v>44</v>
+      </c>
+      <c r="R71">
+        <v>68.3</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>9</v>
+      </c>
+      <c r="U71">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V71">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>190.5</v>
+      </c>
+      <c r="E72">
+        <v>98.883056</v>
+      </c>
+      <c r="F72">
+        <v>195</v>
+      </c>
+      <c r="G72">
+        <v>3220</v>
+      </c>
+      <c r="H72">
+        <v>16.51282051282051</v>
+      </c>
+      <c r="I72">
+        <v>31</v>
+      </c>
+      <c r="J72">
+        <v>40</v>
+      </c>
+      <c r="K72">
+        <v>4.54</v>
+      </c>
+      <c r="L72">
+        <v>35.5</v>
+      </c>
+      <c r="M72">
+        <v>18</v>
+      </c>
+      <c r="N72">
+        <v>124</v>
+      </c>
+      <c r="O72">
+        <v>6.57</v>
+      </c>
+      <c r="P72">
+        <v>4.11</v>
+      </c>
+      <c r="Q72">
+        <v>40</v>
+      </c>
+      <c r="R72">
+        <v>71.2</v>
+      </c>
+      <c r="S72">
+        <v>4.8</v>
+      </c>
+      <c r="T72">
+        <v>24</v>
+      </c>
+      <c r="U72">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V72">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73">
+        <v>2018</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>182.88</v>
+      </c>
+      <c r="E73">
+        <v>85.728888</v>
+      </c>
+      <c r="F73">
+        <v>224</v>
+      </c>
+      <c r="G73">
+        <v>2781</v>
+      </c>
+      <c r="H73">
+        <v>12.41517857142857</v>
+      </c>
+      <c r="I73">
+        <v>19</v>
+      </c>
+      <c r="J73">
+        <v>44</v>
+      </c>
+      <c r="K73">
+        <v>4.43</v>
+      </c>
+      <c r="L73">
+        <v>31</v>
+      </c>
+      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>110</v>
+      </c>
+      <c r="O73">
+        <v>6.88</v>
+      </c>
+      <c r="P73">
+        <v>4.41</v>
+      </c>
+      <c r="Q73">
+        <v>26</v>
+      </c>
+      <c r="R73">
+        <v>64.3</v>
+      </c>
+      <c r="S73">
+        <v>5.2</v>
+      </c>
+      <c r="T73">
+        <v>26</v>
+      </c>
+      <c r="U73">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V73">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>182.88</v>
+      </c>
+      <c r="E74">
+        <v>95.25431999999999</v>
+      </c>
+      <c r="F74">
+        <v>146</v>
+      </c>
+      <c r="G74">
+        <v>2027</v>
+      </c>
+      <c r="H74">
+        <v>13.88356164383562</v>
+      </c>
+      <c r="I74">
+        <v>17</v>
+      </c>
+      <c r="J74">
+        <v>36</v>
+      </c>
+      <c r="K74">
+        <v>4.42</v>
+      </c>
+      <c r="L74">
+        <v>39.5</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74">
+        <v>132</v>
+      </c>
+      <c r="O74">
+        <v>6.95</v>
+      </c>
+      <c r="P74">
+        <v>4.07</v>
+      </c>
+      <c r="Q74">
+        <v>24</v>
+      </c>
+      <c r="R74">
+        <v>88.3</v>
+      </c>
+      <c r="S74">
+        <v>7.8</v>
+      </c>
+      <c r="T74">
+        <v>39</v>
+      </c>
+      <c r="U74">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V74">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>180.34</v>
+      </c>
+      <c r="E75">
+        <v>92.079176</v>
+      </c>
+      <c r="F75">
+        <v>136</v>
+      </c>
+      <c r="G75">
+        <v>1512</v>
+      </c>
+      <c r="H75">
+        <v>11.11764705882353</v>
+      </c>
+      <c r="I75">
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <v>27</v>
+      </c>
+      <c r="K75">
+        <v>4.55</v>
+      </c>
+      <c r="L75">
+        <v>33.5</v>
+      </c>
+      <c r="M75">
+        <v>17</v>
+      </c>
+      <c r="N75">
+        <v>116</v>
+      </c>
+      <c r="O75">
+        <v>6.91</v>
+      </c>
+      <c r="P75">
+        <v>4.19</v>
+      </c>
+      <c r="Q75">
+        <v>256</v>
+      </c>
+      <c r="R75">
+        <v>54.1</v>
+      </c>
+      <c r="S75">
+        <v>0.4</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V75">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>195.58</v>
+      </c>
+      <c r="E76">
+        <v>103.418976</v>
+      </c>
+      <c r="F76">
+        <v>65</v>
+      </c>
+      <c r="G76">
+        <v>957</v>
+      </c>
+      <c r="H76">
+        <v>14.72307692307692</v>
+      </c>
+      <c r="I76">
+        <v>16</v>
+      </c>
+      <c r="J76">
+        <v>22</v>
+      </c>
+      <c r="K76">
+        <v>4.68</v>
+      </c>
+      <c r="L76">
+        <v>31</v>
+      </c>
+      <c r="M76">
+        <v>15.703125</v>
+      </c>
+      <c r="N76">
+        <v>112</v>
+      </c>
+      <c r="O76">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P76">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q76">
+        <v>253</v>
+      </c>
+      <c r="R76">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="U76">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V76">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>177.8</v>
+      </c>
+      <c r="E77">
+        <v>83.007336</v>
+      </c>
+      <c r="F77">
+        <v>243</v>
+      </c>
+      <c r="G77">
+        <v>3249</v>
+      </c>
+      <c r="H77">
+        <v>13.37037037037037</v>
+      </c>
+      <c r="I77">
+        <v>23</v>
+      </c>
+      <c r="J77">
+        <v>31</v>
+      </c>
+      <c r="K77">
+        <v>4.48</v>
+      </c>
+      <c r="L77">
+        <v>35.5</v>
+      </c>
+      <c r="M77">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>122</v>
+      </c>
+      <c r="O77">
+        <v>6.87</v>
+      </c>
+      <c r="P77">
+        <v>4.16</v>
+      </c>
+      <c r="Q77">
+        <v>240</v>
+      </c>
+      <c r="R77">
+        <v>51</v>
+      </c>
+      <c r="S77">
+        <v>2.4</v>
+      </c>
+      <c r="T77">
+        <v>12</v>
+      </c>
+      <c r="U77">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V77">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>193.04</v>
+      </c>
+      <c r="E78">
+        <v>97.975872</v>
+      </c>
+      <c r="F78">
+        <v>146</v>
+      </c>
+      <c r="G78">
+        <v>2466</v>
+      </c>
+      <c r="H78">
+        <v>16.89041095890411</v>
+      </c>
+      <c r="I78">
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>4.62</v>
+      </c>
+      <c r="L78">
+        <v>34</v>
+      </c>
+      <c r="M78">
+        <v>13</v>
+      </c>
+      <c r="N78">
+        <v>121</v>
+      </c>
+      <c r="O78">
+        <v>7.07</v>
+      </c>
+      <c r="P78">
+        <v>4.25</v>
+      </c>
+      <c r="Q78">
+        <v>228</v>
+      </c>
+      <c r="R78">
+        <v>45</v>
+      </c>
+      <c r="S78">
+        <v>0.4</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V78">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>190.5</v>
+      </c>
+      <c r="E79">
+        <v>97.52227999999999</v>
+      </c>
+      <c r="F79">
+        <v>62</v>
+      </c>
+      <c r="G79">
+        <v>910</v>
+      </c>
+      <c r="H79">
+        <v>14.67741935483871</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>22</v>
+      </c>
+      <c r="K79">
+        <v>4.53</v>
+      </c>
+      <c r="L79">
+        <v>33.5</v>
+      </c>
+      <c r="M79">
+        <v>15.703125</v>
+      </c>
+      <c r="N79">
+        <v>113</v>
+      </c>
+      <c r="O79">
+        <v>7</v>
+      </c>
+      <c r="P79">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q79">
+        <v>224</v>
+      </c>
+      <c r="R79">
+        <v>53.9</v>
+      </c>
+      <c r="S79">
+        <v>0.2</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V79">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>175.26</v>
+      </c>
+      <c r="E80">
+        <v>83.460928</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80">
+        <v>1175</v>
+      </c>
+      <c r="H80">
+        <v>11.75</v>
+      </c>
+      <c r="I80">
+        <v>14</v>
+      </c>
+      <c r="J80">
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <v>4.44</v>
+      </c>
+      <c r="L80">
+        <v>36</v>
+      </c>
+      <c r="M80">
+        <v>11</v>
+      </c>
+      <c r="N80">
+        <v>110</v>
+      </c>
+      <c r="O80">
+        <v>6.72</v>
+      </c>
+      <c r="P80">
+        <v>4.18</v>
+      </c>
+      <c r="Q80">
+        <v>210</v>
+      </c>
+      <c r="R80">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>10</v>
+      </c>
+      <c r="U80">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V80">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81">
+        <v>2018</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>187.96</v>
+      </c>
+      <c r="E81">
+        <v>89.357624</v>
+      </c>
+      <c r="F81">
+        <v>139</v>
+      </c>
+      <c r="G81">
+        <v>2640</v>
+      </c>
+      <c r="H81">
+        <v>18.99280575539568</v>
+      </c>
+      <c r="I81">
+        <v>18</v>
+      </c>
+      <c r="J81">
+        <v>26</v>
+      </c>
+      <c r="K81">
+        <v>4.55</v>
+      </c>
+      <c r="L81">
+        <v>37</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81">
+        <v>121</v>
+      </c>
+      <c r="O81">
+        <v>6.89</v>
+      </c>
+      <c r="P81">
+        <v>4.23</v>
+      </c>
+      <c r="Q81">
+        <v>208</v>
+      </c>
+      <c r="R81">
+        <v>58.1</v>
+      </c>
+      <c r="S81">
+        <v>1.4</v>
+      </c>
+      <c r="T81">
+        <v>7</v>
+      </c>
+      <c r="U81">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V81">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>195.58</v>
+      </c>
+      <c r="E82">
+        <v>97.06868799999999</v>
+      </c>
+      <c r="F82">
+        <v>92</v>
+      </c>
+      <c r="G82">
+        <v>1484</v>
+      </c>
+      <c r="H82">
+        <v>16.1304347826087</v>
+      </c>
+      <c r="I82">
+        <v>13</v>
+      </c>
+      <c r="J82">
+        <v>26</v>
+      </c>
+      <c r="K82">
+        <v>4.48</v>
+      </c>
+      <c r="L82">
+        <v>36.47945205479452</v>
+      </c>
+      <c r="M82">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>123.1388888888889</v>
+      </c>
+      <c r="O82">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P82">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q82">
+        <v>207</v>
+      </c>
+      <c r="R82">
+        <v>64.2</v>
+      </c>
+      <c r="S82">
+        <v>1.6</v>
+      </c>
+      <c r="T82">
+        <v>8</v>
+      </c>
+      <c r="U82">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V82">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>182.88</v>
+      </c>
+      <c r="E83">
+        <v>83.460928</v>
+      </c>
+      <c r="F83">
+        <v>28</v>
+      </c>
+      <c r="G83">
+        <v>232</v>
+      </c>
+      <c r="H83">
+        <v>8.285714285714286</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>21</v>
+      </c>
+      <c r="K83">
+        <v>4.5</v>
+      </c>
+      <c r="L83">
+        <v>39</v>
+      </c>
+      <c r="M83">
+        <v>15.703125</v>
+      </c>
+      <c r="N83">
+        <v>122</v>
+      </c>
+      <c r="O83">
+        <v>7.03</v>
+      </c>
+      <c r="P83">
+        <v>4.25</v>
+      </c>
+      <c r="Q83">
+        <v>194</v>
+      </c>
+      <c r="R83">
+        <v>67.7</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>20</v>
+      </c>
+      <c r="U83">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V83">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84">
+        <v>2018</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>175.26</v>
+      </c>
+      <c r="E84">
+        <v>86.18248</v>
+      </c>
+      <c r="F84">
+        <v>127</v>
+      </c>
+      <c r="G84">
+        <v>1226</v>
+      </c>
+      <c r="H84">
+        <v>9.653543307086615</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>39</v>
+      </c>
+      <c r="K84">
+        <v>4.53</v>
+      </c>
+      <c r="L84">
+        <v>34.5</v>
+      </c>
+      <c r="M84">
+        <v>13</v>
+      </c>
+      <c r="N84">
+        <v>113</v>
+      </c>
+      <c r="O84">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P84">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q84">
+        <v>187</v>
+      </c>
+      <c r="R84">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="S84">
+        <v>1.2</v>
+      </c>
+      <c r="T84">
+        <v>6</v>
+      </c>
+      <c r="U84">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V84">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85">
+        <v>2018</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>187.96</v>
+      </c>
+      <c r="E85">
+        <v>91.625584</v>
+      </c>
+      <c r="F85">
+        <v>130</v>
+      </c>
+      <c r="G85">
+        <v>2040</v>
+      </c>
+      <c r="H85">
+        <v>15.69230769230769</v>
+      </c>
+      <c r="I85">
+        <v>20</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>4.43</v>
+      </c>
+      <c r="L85">
+        <v>33.5</v>
+      </c>
+      <c r="M85">
+        <v>11</v>
+      </c>
+      <c r="N85">
+        <v>115</v>
+      </c>
+      <c r="O85">
+        <v>6.71</v>
+      </c>
+      <c r="P85">
+        <v>4.37</v>
+      </c>
+      <c r="Q85">
+        <v>185</v>
+      </c>
+      <c r="R85">
+        <v>55.6</v>
+      </c>
+      <c r="S85">
+        <v>0.2</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V85">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86">
+        <v>2018</v>
+      </c>
+      <c r="C86">
+        <v>23</v>
+      </c>
+      <c r="D86">
+        <v>193.04</v>
+      </c>
+      <c r="E86">
+        <v>93.43995200000001</v>
+      </c>
+      <c r="F86">
+        <v>119</v>
+      </c>
+      <c r="G86">
+        <v>1832</v>
+      </c>
+      <c r="H86">
+        <v>15.39495798319328</v>
+      </c>
+      <c r="I86">
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>39</v>
+      </c>
+      <c r="K86">
+        <v>4.37</v>
+      </c>
+      <c r="L86">
+        <v>30.5</v>
+      </c>
+      <c r="M86">
+        <v>15</v>
+      </c>
+      <c r="N86">
+        <v>124</v>
+      </c>
+      <c r="O86">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P86">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q86">
+        <v>174</v>
+      </c>
+      <c r="R86">
+        <v>62.6</v>
+      </c>
+      <c r="S86">
+        <v>4.8</v>
+      </c>
+      <c r="T86">
+        <v>24</v>
+      </c>
+      <c r="U86">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V86">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87">
+        <v>2018</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>187.96</v>
+      </c>
+      <c r="E87">
+        <v>97.52227999999999</v>
+      </c>
+      <c r="F87">
+        <v>286</v>
+      </c>
+      <c r="G87">
+        <v>3777</v>
+      </c>
+      <c r="H87">
+        <v>13.20629370629371</v>
+      </c>
+      <c r="I87">
+        <v>33</v>
+      </c>
+      <c r="J87">
+        <v>40</v>
+      </c>
+      <c r="K87">
+        <v>4.44</v>
+      </c>
+      <c r="L87">
+        <v>40</v>
+      </c>
+      <c r="M87">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>124</v>
+      </c>
+      <c r="O87">
+        <v>7.08</v>
+      </c>
+      <c r="P87">
+        <v>4.26</v>
+      </c>
+      <c r="Q87">
+        <v>265</v>
+      </c>
+      <c r="R87">
+        <v>52.7</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>5</v>
+      </c>
+      <c r="U87">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V87">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88">
+        <v>2018</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>195.58</v>
+      </c>
+      <c r="E88">
+        <v>102.965384</v>
+      </c>
+      <c r="F88">
+        <v>241</v>
+      </c>
+      <c r="G88">
+        <v>3360</v>
+      </c>
+      <c r="H88">
+        <v>13.94190871369295</v>
+      </c>
+      <c r="I88">
+        <v>26</v>
+      </c>
+      <c r="J88">
+        <v>48</v>
+      </c>
+      <c r="K88">
+        <v>4.55</v>
+      </c>
+      <c r="L88">
+        <v>38</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>122</v>
+      </c>
+      <c r="O88">
+        <v>7.003725490196078</v>
+      </c>
+      <c r="P88">
+        <v>4.273137254901961</v>
+      </c>
+      <c r="Q88">
+        <v>265</v>
+      </c>
+      <c r="R88">
+        <v>69</v>
+      </c>
+      <c r="S88">
+        <v>4.2</v>
+      </c>
+      <c r="T88">
+        <v>21</v>
+      </c>
+      <c r="U88">
+        <v>1.137931034482759</v>
+      </c>
+      <c r="V88">
+        <v>34.81034482758621</v>
+      </c>
+      <c r="W88">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/activeStatsFilled.xlsx
+++ b/data/activeStatsFilled.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victornorris/Code/projects/DraftPredictor/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F37E820-E15C-2B4D-8B53-1483F4C34EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="22760" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -346,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,13 +416,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -454,7 +468,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -488,6 +502,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -522,9 +537,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -697,14 +713,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -819,10 +837,10 @@
         <v>120</v>
       </c>
       <c r="O2">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P2">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q2">
         <v>51</v>
@@ -846,435 +864,435 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>175.26</v>
+        <v>195.58</v>
       </c>
       <c r="E3">
-        <v>85.275296</v>
+        <v>102.965384</v>
       </c>
       <c r="F3">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G3">
-        <v>3526</v>
+        <v>3360</v>
       </c>
       <c r="H3">
-        <v>15.26406926406926</v>
+        <v>13.94190871369295</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="L3">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O3">
-        <v>6.95</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P3">
-        <v>4.15</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q3">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="R3">
-        <v>51.2</v>
+        <v>69</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V3">
-        <v>41</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
       <c r="D4">
-        <v>193.04</v>
+        <v>175.26</v>
       </c>
       <c r="E4">
-        <v>45.26405454208</v>
+        <v>85.275295999999997</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="G4">
-        <v>2433</v>
+        <v>3526</v>
       </c>
       <c r="H4">
-        <v>16.22</v>
+        <v>15.26406926406926</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>4.6</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>36.5</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O4">
-        <v>7.33</v>
+        <v>6.95</v>
       </c>
       <c r="P4">
-        <v>4.55</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Q4">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="R4">
-        <v>44.6</v>
+        <v>51.2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="W4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B5">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>182.88</v>
+        <v>180.34</v>
       </c>
       <c r="E5">
-        <v>41.1491404928</v>
+        <v>91.171992000000003</v>
       </c>
       <c r="F5">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="G5">
-        <v>1666</v>
+        <v>3590</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>15.08403361344538</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>4.5</v>
       </c>
       <c r="L5">
-        <v>36.47945205479452</v>
+        <v>39</v>
       </c>
       <c r="M5">
-        <v>15.703125</v>
+        <v>22</v>
       </c>
       <c r="N5">
-        <v>123.1388888888889</v>
+        <v>125</v>
       </c>
       <c r="O5">
-        <v>7.003725490196078</v>
+        <v>6.65</v>
       </c>
       <c r="P5">
-        <v>4.273137254901961</v>
+        <v>4.26</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="R5">
-        <v>80.3</v>
+        <v>61.9</v>
       </c>
       <c r="S5">
-        <v>7.666666666666667</v>
+        <v>2.4</v>
       </c>
       <c r="T5">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V5">
-        <v>46</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B6">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C6">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>190.5</v>
+        <v>180.34</v>
       </c>
       <c r="E6">
-        <v>44.23532602976</v>
+        <v>90.718400000000003</v>
       </c>
       <c r="F6">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="G6">
-        <v>3045</v>
+        <v>1399</v>
       </c>
       <c r="H6">
-        <v>13.01282051282051</v>
+        <v>15.719101123595509</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>4.53</v>
+        <v>4.41</v>
       </c>
       <c r="L6">
-        <v>36.47945205479452</v>
+        <v>43</v>
       </c>
       <c r="M6">
         <v>15.703125</v>
       </c>
       <c r="N6">
-        <v>123.1388888888889</v>
+        <v>121</v>
       </c>
       <c r="O6">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P6">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q6">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="R6">
-        <v>50.7</v>
+        <v>60.5</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V6">
-        <v>35</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>2020</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>187.96</v>
+        <v>193.04</v>
       </c>
       <c r="E7">
-        <v>41.1491404928</v>
+        <v>45.264054542079997</v>
       </c>
       <c r="F7">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G7">
-        <v>3292</v>
+        <v>2433</v>
       </c>
       <c r="H7">
-        <v>19.02890173410405</v>
+        <v>16.22</v>
       </c>
       <c r="I7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L7">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N7">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O7">
-        <v>7.003725490196078</v>
+        <v>7.33</v>
       </c>
       <c r="P7">
-        <v>4.273137254901961</v>
+        <v>4.55</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="R7">
-        <v>86.3</v>
+        <v>44.6</v>
       </c>
       <c r="S7">
-        <v>10.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B8">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>195.58</v>
+      </c>
+      <c r="E8">
+        <v>103.418976</v>
+      </c>
+      <c r="F8">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>957</v>
+      </c>
+      <c r="H8">
+        <v>14.723076923076921</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>193.04</v>
-      </c>
-      <c r="E8">
-        <v>48.967477186432</v>
-      </c>
-      <c r="F8">
-        <v>150</v>
-      </c>
-      <c r="G8">
-        <v>2159</v>
-      </c>
-      <c r="H8">
-        <v>14.39333333333333</v>
-      </c>
-      <c r="I8">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>45</v>
-      </c>
       <c r="K8">
-        <v>4.42</v>
+        <v>4.68</v>
       </c>
       <c r="L8">
-        <v>40.5</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>15.703125</v>
       </c>
       <c r="N8">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O8">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P8">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q8">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="R8">
-        <v>61.8</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="S8">
-        <v>6.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V8">
-        <v>46</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -1283,424 +1301,424 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>198.12</v>
+        <v>182.88</v>
       </c>
       <c r="E9">
-        <v>45.26405454208</v>
+        <v>41.149140492800001</v>
       </c>
       <c r="F9">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="G9">
-        <v>2623</v>
+        <v>1666</v>
       </c>
       <c r="H9">
-        <v>13.95212765957447</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>36.47945205479452</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>15.703125</v>
       </c>
       <c r="N9">
         <v>123.1388888888889</v>
       </c>
       <c r="O9">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P9">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="R9">
-        <v>62.3</v>
+        <v>80.3</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="T9">
+        <v>23</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>190.5</v>
+        <v>175.26</v>
       </c>
       <c r="E10">
-        <v>103.872568</v>
+        <v>83.460927999999996</v>
       </c>
       <c r="F10">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>1228</v>
+        <v>1175</v>
       </c>
       <c r="H10">
-        <v>18.32835820895522</v>
+        <v>11.75</v>
       </c>
       <c r="I10">
         <v>14</v>
       </c>
       <c r="J10">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L10">
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>6.72</v>
+      </c>
+      <c r="P10">
+        <v>4.18</v>
+      </c>
+      <c r="Q10">
+        <v>210</v>
+      </c>
+      <c r="R10">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V10">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="K10">
-        <v>4.33</v>
-      </c>
-      <c r="L10">
-        <v>40.5</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>134</v>
-      </c>
-      <c r="O10">
-        <v>7.38</v>
-      </c>
-      <c r="P10">
-        <v>4.5</v>
-      </c>
-      <c r="Q10">
-        <v>64</v>
-      </c>
-      <c r="R10">
-        <v>75.3</v>
-      </c>
-      <c r="S10">
-        <v>9.25</v>
-      </c>
-      <c r="T10">
-        <v>37</v>
-      </c>
-      <c r="U10">
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <v>66</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>2019</v>
-      </c>
-      <c r="C11">
+      <c r="D11">
+        <v>190.5</v>
+      </c>
+      <c r="E11">
+        <v>44.235326029760003</v>
+      </c>
+      <c r="F11">
+        <v>234</v>
+      </c>
+      <c r="G11">
+        <v>3045</v>
+      </c>
+      <c r="H11">
+        <v>13.012820512820509</v>
+      </c>
+      <c r="I11">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>185.42</v>
-      </c>
-      <c r="E11">
-        <v>87.996848</v>
-      </c>
-      <c r="F11">
-        <v>79</v>
-      </c>
-      <c r="G11">
-        <v>1605</v>
-      </c>
-      <c r="H11">
-        <v>20.31645569620253</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
       <c r="J11">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>4.39</v>
+        <v>4.53</v>
       </c>
       <c r="L11">
-        <v>40.5</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>15.703125</v>
       </c>
       <c r="N11">
-        <v>135</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P11">
-        <v>4.15</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q11">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="R11">
-        <v>68.5</v>
+        <v>50.7</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>35</v>
+      </c>
+      <c r="W11">
         <v>3</v>
       </c>
-      <c r="V11">
-        <v>59</v>
-      </c>
-      <c r="W11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>180.34</v>
+        <v>182.88</v>
       </c>
       <c r="E12">
-        <v>35.594006526272</v>
+        <v>85.728887999999998</v>
       </c>
       <c r="F12">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="G12">
-        <v>2572</v>
+        <v>2781</v>
       </c>
       <c r="H12">
-        <v>16.7012987012987</v>
+        <v>12.415178571428569</v>
       </c>
       <c r="I12">
         <v>19</v>
       </c>
       <c r="J12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>4.38</v>
+        <v>4.43</v>
       </c>
       <c r="L12">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>110</v>
+      </c>
+      <c r="O12">
+        <v>6.88</v>
+      </c>
+      <c r="P12">
+        <v>4.41</v>
+      </c>
+      <c r="Q12">
+        <v>26</v>
+      </c>
+      <c r="R12">
+        <v>64.3</v>
+      </c>
+      <c r="S12">
+        <v>5.2</v>
+      </c>
+      <c r="T12">
+        <v>26</v>
+      </c>
+      <c r="U12">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V12">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>187.96</v>
+      </c>
+      <c r="E13">
+        <v>89.357624000000001</v>
+      </c>
+      <c r="F13">
+        <v>139</v>
+      </c>
+      <c r="G13">
+        <v>2640</v>
+      </c>
+      <c r="H13">
+        <v>18.992805755395679</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>4.55</v>
+      </c>
+      <c r="L13">
         <v>37</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N12">
-        <v>124</v>
-      </c>
-      <c r="O12">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P12">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q12">
-        <v>173</v>
-      </c>
-      <c r="R12">
-        <v>69.2</v>
-      </c>
-      <c r="S12">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="T12">
-        <v>20</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>45</v>
-      </c>
-      <c r="W12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>2019</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>182.88</v>
-      </c>
-      <c r="E13">
-        <v>97.52227999999999</v>
-      </c>
-      <c r="F13">
-        <v>148</v>
-      </c>
-      <c r="G13">
-        <v>2076</v>
-      </c>
-      <c r="H13">
-        <v>14.02702702702703</v>
-      </c>
-      <c r="I13">
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>4.48</v>
-      </c>
-      <c r="L13">
-        <v>39</v>
-      </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
       <c r="N13">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13">
-        <v>7.03</v>
+        <v>6.89</v>
       </c>
       <c r="P13">
-        <v>4.14</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="R13">
-        <v>62.4</v>
+        <v>58.1</v>
       </c>
       <c r="S13">
-        <v>8.25</v>
+        <v>1.4</v>
       </c>
       <c r="T13">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V13">
-        <v>51</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>190.5</v>
+        <v>187.96</v>
       </c>
       <c r="E14">
-        <v>42.589360410048</v>
+        <v>41.149140492800001</v>
       </c>
       <c r="F14">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G14">
-        <v>2925</v>
+        <v>3292</v>
       </c>
       <c r="H14">
-        <v>15.7258064516129</v>
+        <v>19.02890173410405</v>
       </c>
       <c r="I14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J14">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="L14">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O14">
-        <v>6.66</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P14">
-        <v>4.43</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q14">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="R14">
-        <v>59.8</v>
+        <v>86.3</v>
       </c>
       <c r="S14">
-        <v>1.666666666666667</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="W14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>2020</v>
@@ -1709,55 +1727,55 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>180.34</v>
+        <v>193.04</v>
       </c>
       <c r="E15">
-        <v>41.560631897728</v>
+        <v>48.967477186431999</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="G15">
-        <v>2468</v>
+        <v>2159</v>
       </c>
       <c r="H15">
-        <v>14.02272727272727</v>
+        <v>14.393333333333331</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J15">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>4.39</v>
+        <v>4.42</v>
       </c>
       <c r="L15">
-        <v>35.5</v>
+        <v>40.5</v>
       </c>
       <c r="M15">
-        <v>15.703125</v>
+        <v>19</v>
       </c>
       <c r="N15">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O15">
-        <v>7.13</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P15">
-        <v>4.55</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q15">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="R15">
-        <v>67.2</v>
+        <v>61.8</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="T15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -1769,296 +1787,296 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>177.8</v>
+      </c>
+      <c r="E16">
+        <v>91.171992000000003</v>
+      </c>
+      <c r="F16">
+        <v>234</v>
+      </c>
+      <c r="G16">
+        <v>2856</v>
+      </c>
+      <c r="H16">
+        <v>12.205128205128201</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>4.47</v>
+      </c>
+      <c r="L16">
+        <v>35.5</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>115</v>
+      </c>
+      <c r="O16">
+        <v>7.09</v>
+      </c>
+      <c r="P16">
+        <v>4.45</v>
+      </c>
+      <c r="Q16">
+        <v>47</v>
+      </c>
+      <c r="R16">
+        <v>74.2</v>
+      </c>
+      <c r="S16">
+        <v>6.6</v>
+      </c>
+      <c r="T16">
+        <v>33</v>
+      </c>
+      <c r="U16">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V16">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
         <v>2020</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="D16">
-        <v>193.04</v>
-      </c>
-      <c r="E16">
-        <v>46.2927830544</v>
-      </c>
-      <c r="F16">
-        <v>156</v>
-      </c>
-      <c r="G16">
-        <v>1976</v>
-      </c>
-      <c r="H16">
-        <v>12.66666666666667</v>
-      </c>
-      <c r="I16">
-        <v>13</v>
-      </c>
-      <c r="J16">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>4.48</v>
-      </c>
-      <c r="L16">
-        <v>36</v>
-      </c>
-      <c r="M16">
+      <c r="D17">
+        <v>198.12</v>
+      </c>
+      <c r="E17">
+        <v>45.264054542079997</v>
+      </c>
+      <c r="F17">
+        <v>188</v>
+      </c>
+      <c r="G17">
+        <v>2623</v>
+      </c>
+      <c r="H17">
+        <v>13.952127659574471</v>
+      </c>
+      <c r="I17">
         <v>15</v>
       </c>
-      <c r="N16">
-        <v>132</v>
-      </c>
-      <c r="O16">
-        <v>7.28</v>
-      </c>
-      <c r="P16">
-        <v>4.38</v>
-      </c>
-      <c r="Q16">
-        <v>212</v>
-      </c>
-      <c r="R16">
-        <v>55.4</v>
-      </c>
-      <c r="S16">
+      <c r="J17">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>4.58</v>
+      </c>
+      <c r="L17">
+        <v>36.479452054794521</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>123.1388888888889</v>
+      </c>
+      <c r="O17">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P17">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q17">
+        <v>165</v>
+      </c>
+      <c r="R17">
+        <v>62.3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
-      <c r="W16">
+      <c r="V17">
+        <v>26</v>
+      </c>
+      <c r="W17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>2019</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>177.8</v>
-      </c>
-      <c r="E17">
-        <v>83.007336</v>
-      </c>
-      <c r="F17">
-        <v>135</v>
-      </c>
-      <c r="G17">
-        <v>2235</v>
-      </c>
-      <c r="H17">
-        <v>16.55555555555556</v>
-      </c>
-      <c r="I17">
-        <v>23</v>
-      </c>
-      <c r="J17">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>4.53</v>
-      </c>
-      <c r="L17">
-        <v>33.5</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>123</v>
-      </c>
-      <c r="O17">
-        <v>7.09</v>
-      </c>
-      <c r="P17">
-        <v>4.45</v>
-      </c>
-      <c r="Q17">
-        <v>66</v>
-      </c>
-      <c r="R17">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="S17">
-        <v>7</v>
-      </c>
-      <c r="T17">
-        <v>28</v>
-      </c>
-      <c r="U17">
-        <v>4</v>
-      </c>
-      <c r="V17">
-        <v>64</v>
-      </c>
-      <c r="W17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B18">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>190.5</v>
+      </c>
+      <c r="E18">
+        <v>98.883055999999996</v>
+      </c>
+      <c r="F18">
+        <v>195</v>
+      </c>
+      <c r="G18">
+        <v>3220</v>
+      </c>
+      <c r="H18">
+        <v>16.512820512820511</v>
+      </c>
+      <c r="I18">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>4.54</v>
+      </c>
+      <c r="L18">
+        <v>35.5</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>124</v>
+      </c>
+      <c r="O18">
+        <v>6.57</v>
+      </c>
+      <c r="P18">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>71.2</v>
+      </c>
+      <c r="S18">
+        <v>4.8</v>
+      </c>
+      <c r="T18">
+        <v>24</v>
+      </c>
+      <c r="U18">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V18">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19">
         <v>21</v>
-      </c>
-      <c r="D18">
-        <v>187.96</v>
-      </c>
-      <c r="E18">
-        <v>41.972123302656</v>
-      </c>
-      <c r="F18">
-        <v>103</v>
-      </c>
-      <c r="G18">
-        <v>1327</v>
-      </c>
-      <c r="H18">
-        <v>12.88349514563107</v>
-      </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>47</v>
-      </c>
-      <c r="K18">
-        <v>4.48</v>
-      </c>
-      <c r="L18">
-        <v>44.5</v>
-      </c>
-      <c r="M18">
-        <v>15.703125</v>
-      </c>
-      <c r="N18">
-        <v>139</v>
-      </c>
-      <c r="O18">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P18">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q18">
-        <v>187</v>
-      </c>
-      <c r="R18">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="S18">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="T18">
-        <v>16</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>43</v>
-      </c>
-      <c r="W18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>2020</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
       </c>
       <c r="D19">
         <v>182.88</v>
       </c>
       <c r="E19">
-        <v>40.943394790336</v>
+        <v>95.254319999999993</v>
       </c>
       <c r="F19">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="G19">
-        <v>996</v>
+        <v>2027</v>
       </c>
       <c r="H19">
-        <v>14.64705882352941</v>
+        <v>13.88356164383562</v>
       </c>
       <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>4.42</v>
+      </c>
+      <c r="L19">
+        <v>39.5</v>
+      </c>
+      <c r="M19">
         <v>15</v>
       </c>
-      <c r="J19">
-        <v>37</v>
-      </c>
-      <c r="K19">
-        <v>4.46</v>
-      </c>
-      <c r="L19">
-        <v>36.5</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
       <c r="N19">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="O19">
-        <v>7.05</v>
+        <v>6.95</v>
       </c>
       <c r="P19">
-        <v>4.26</v>
+        <v>4.07</v>
       </c>
       <c r="Q19">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="R19">
-        <v>61.8</v>
+        <v>88.3</v>
       </c>
       <c r="S19">
-        <v>1.666666666666667</v>
+        <v>7.8</v>
       </c>
       <c r="T19">
+        <v>39</v>
+      </c>
+      <c r="U19">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V19">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W19">
         <v>5</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>37</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C20">
         <v>21</v>
@@ -2067,1415 +2085,1415 @@
         <v>190.5</v>
       </c>
       <c r="E20">
-        <v>43.618088922368</v>
+        <v>103.872568</v>
       </c>
       <c r="F20">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="G20">
-        <v>2447</v>
+        <v>1228</v>
       </c>
       <c r="H20">
-        <v>15.5859872611465</v>
+        <v>18.328358208955219</v>
       </c>
       <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>4.33</v>
+      </c>
+      <c r="L20">
+        <v>40.5</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20">
+        <v>134</v>
+      </c>
+      <c r="O20">
+        <v>7.38</v>
+      </c>
+      <c r="P20">
+        <v>4.5</v>
+      </c>
+      <c r="Q20">
+        <v>64</v>
+      </c>
+      <c r="R20">
+        <v>75.3</v>
+      </c>
+      <c r="S20">
+        <v>9.25</v>
+      </c>
+      <c r="T20">
+        <v>37</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>66</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
         <v>23</v>
-      </c>
-      <c r="J20">
-        <v>34</v>
-      </c>
-      <c r="K20">
-        <v>4.54</v>
-      </c>
-      <c r="L20">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>14</v>
-      </c>
-      <c r="N20">
-        <v>124</v>
-      </c>
-      <c r="O20">
-        <v>7.08</v>
-      </c>
-      <c r="P20">
-        <v>4.59</v>
-      </c>
-      <c r="Q20">
-        <v>128</v>
-      </c>
-      <c r="R20">
-        <v>64.2</v>
-      </c>
-      <c r="S20">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="T20">
-        <v>19</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>47</v>
-      </c>
-      <c r="W20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>2019</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
       </c>
       <c r="D21">
         <v>185.42</v>
       </c>
       <c r="E21">
-        <v>97.975872</v>
+        <v>90.264808000000002</v>
       </c>
       <c r="F21">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="G21">
-        <v>2294</v>
+        <v>2842</v>
       </c>
       <c r="H21">
-        <v>13.65476190476191</v>
+        <v>13.2803738317757</v>
       </c>
       <c r="I21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>4.42</v>
+        <v>4.4867058823529424</v>
       </c>
       <c r="L21">
+        <v>34.5</v>
+      </c>
+      <c r="M21">
+        <v>15.703125</v>
+      </c>
+      <c r="N21">
+        <v>118</v>
+      </c>
+      <c r="O21">
+        <v>6.84</v>
+      </c>
+      <c r="P21">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q21">
+        <v>113</v>
+      </c>
+      <c r="R21">
+        <v>58.4</v>
+      </c>
+      <c r="S21">
+        <v>1.2</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V21">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>182.88</v>
+      </c>
+      <c r="E22">
+        <v>84.368111999999996</v>
+      </c>
+      <c r="F22">
+        <v>163</v>
+      </c>
+      <c r="G22">
+        <v>2256</v>
+      </c>
+      <c r="H22">
+        <v>13.840490797546011</v>
+      </c>
+      <c r="I22">
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>4.4867058823529424</v>
+      </c>
+      <c r="L22">
+        <v>36.479452054794521</v>
+      </c>
+      <c r="M22">
+        <v>15.703125</v>
+      </c>
+      <c r="N22">
+        <v>123.1388888888889</v>
+      </c>
+      <c r="O22">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P22">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+      <c r="R22">
+        <v>68.3</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V22">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>185.42</v>
+      </c>
+      <c r="E23">
+        <v>87.996848</v>
+      </c>
+      <c r="F23">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>1605</v>
+      </c>
+      <c r="H23">
+        <v>20.316455696202532</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+      <c r="K23">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L23">
+        <v>40.5</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>135</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q23">
+        <v>171</v>
+      </c>
+      <c r="R23">
+        <v>68.5</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>59</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>180.34</v>
+      </c>
+      <c r="E24">
+        <v>35.594006526271997</v>
+      </c>
+      <c r="F24">
+        <v>154</v>
+      </c>
+      <c r="G24">
+        <v>2572</v>
+      </c>
+      <c r="H24">
+        <v>16.7012987012987</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>4.38</v>
+      </c>
+      <c r="L24">
         <v>37</v>
       </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>127</v>
-      </c>
-      <c r="O21">
-        <v>7.32</v>
-      </c>
-      <c r="P21">
-        <v>4.15</v>
-      </c>
-      <c r="Q21">
-        <v>120</v>
-      </c>
-      <c r="R21">
-        <v>60</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>2019</v>
-      </c>
-      <c r="C22">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>195.58</v>
-      </c>
-      <c r="E22">
-        <v>102.965384</v>
-      </c>
-      <c r="F22">
-        <v>110</v>
-      </c>
-      <c r="G22">
-        <v>2149</v>
-      </c>
-      <c r="H22">
-        <v>19.53636363636364</v>
-      </c>
-      <c r="I22">
-        <v>18</v>
-      </c>
-      <c r="J22">
-        <v>34</v>
-      </c>
-      <c r="K22">
-        <v>4.48</v>
-      </c>
-      <c r="L22">
-        <v>36</v>
-      </c>
-      <c r="M22">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>128</v>
-      </c>
-      <c r="O22">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P22">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q22">
-        <v>103</v>
-      </c>
-      <c r="R22">
-        <v>57.2</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>2020</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>182.88</v>
-      </c>
-      <c r="E23">
-        <v>39.09168346816</v>
-      </c>
-      <c r="F23">
-        <v>98</v>
-      </c>
-      <c r="G23">
-        <v>1716</v>
-      </c>
-      <c r="H23">
-        <v>17.51020408163265</v>
-      </c>
-      <c r="I23">
-        <v>24</v>
-      </c>
-      <c r="J23">
-        <v>40</v>
-      </c>
-      <c r="K23">
-        <v>4.27</v>
-      </c>
-      <c r="L23">
-        <v>42</v>
-      </c>
-      <c r="M23">
-        <v>15.703125</v>
-      </c>
-      <c r="N23">
-        <v>131</v>
-      </c>
-      <c r="O23">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P23">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-      <c r="R23">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="S23">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="T23">
-        <v>8</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>20</v>
-      </c>
-      <c r="W23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24">
-        <v>2019</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>177.8</v>
-      </c>
-      <c r="E24">
-        <v>83.91452</v>
-      </c>
-      <c r="F24">
-        <v>186</v>
-      </c>
-      <c r="G24">
-        <v>2133</v>
-      </c>
-      <c r="H24">
-        <v>11.46774193548387</v>
-      </c>
-      <c r="I24">
-        <v>15</v>
-      </c>
-      <c r="J24">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>4.59</v>
-      </c>
-      <c r="L24">
-        <v>35</v>
-      </c>
       <c r="M24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N24">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O24">
-        <v>6.8</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P24">
-        <v>4.19</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q24">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="R24">
-        <v>65.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="T24">
         <v>20</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="W24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>182.88</v>
+      </c>
+      <c r="E25">
+        <v>97.522279999999995</v>
+      </c>
+      <c r="F25">
+        <v>148</v>
+      </c>
+      <c r="G25">
+        <v>2076</v>
+      </c>
+      <c r="H25">
+        <v>14.02702702702703</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L25">
+        <v>39</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>122</v>
+      </c>
+      <c r="O25">
+        <v>7.03</v>
+      </c>
+      <c r="P25">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q25">
+        <v>36</v>
+      </c>
+      <c r="R25">
+        <v>62.4</v>
+      </c>
+      <c r="S25">
+        <v>8.25</v>
+      </c>
+      <c r="T25">
+        <v>33</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>51</v>
+      </c>
+      <c r="W25">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>2020</v>
-      </c>
-      <c r="C25">
-        <v>21</v>
-      </c>
-      <c r="D25">
-        <v>193.04</v>
-      </c>
-      <c r="E25">
-        <v>43.000851814976</v>
-      </c>
-      <c r="F25">
-        <v>176</v>
-      </c>
-      <c r="G25">
-        <v>2322</v>
-      </c>
-      <c r="H25">
-        <v>13.19318181818182</v>
-      </c>
-      <c r="I25">
-        <v>20</v>
-      </c>
-      <c r="J25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>34</v>
-      </c>
-      <c r="K25">
-        <v>4.61</v>
-      </c>
-      <c r="L25">
-        <v>36.5</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-      <c r="N25">
-        <v>124</v>
-      </c>
-      <c r="O25">
-        <v>7.01</v>
-      </c>
-      <c r="P25">
-        <v>4.12</v>
-      </c>
-      <c r="Q25">
-        <v>207</v>
-      </c>
-      <c r="R25">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>11</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>46</v>
       </c>
       <c r="B26">
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>180.34</v>
+        <v>190.5</v>
       </c>
       <c r="E26">
-        <v>40.531903385408</v>
+        <v>42.589360410048002</v>
       </c>
       <c r="F26">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="G26">
-        <v>2248</v>
+        <v>2925</v>
       </c>
       <c r="H26">
-        <v>15.18918918918919</v>
+        <v>15.7258064516129</v>
       </c>
       <c r="I26">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J26">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>4.47</v>
+        <v>4.38</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>38.5</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O26">
-        <v>7.31</v>
+        <v>6.66</v>
       </c>
       <c r="P26">
-        <v>4.46</v>
+        <v>4.43</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="R26">
-        <v>68.2</v>
+        <v>59.8</v>
       </c>
       <c r="S26">
-        <v>2.666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="W26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B27">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>180.34</v>
+        <v>187.96</v>
       </c>
       <c r="E27">
-        <v>39.09168346816</v>
+        <v>91.625584000000003</v>
       </c>
       <c r="F27">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="G27">
-        <v>3949</v>
+        <v>2040</v>
       </c>
       <c r="H27">
-        <v>13.11960132890365</v>
+        <v>15.69230769230769</v>
       </c>
       <c r="I27">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J27">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>4.55</v>
+        <v>4.43</v>
       </c>
       <c r="L27">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N27">
-        <v>123.1388888888889</v>
+        <v>115</v>
       </c>
       <c r="O27">
-        <v>7.27</v>
+        <v>6.71</v>
       </c>
       <c r="P27">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="Q27">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="R27">
-        <v>44.7</v>
+        <v>55.6</v>
       </c>
       <c r="S27">
+        <v>0.2</v>
+      </c>
+      <c r="T27">
         <v>1</v>
       </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V27">
-        <v>43</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>2020</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>190.5</v>
+        <v>180.34</v>
       </c>
       <c r="E28">
-        <v>43.618088922368</v>
+        <v>41.560631897728001</v>
       </c>
       <c r="F28">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G28">
-        <v>2153</v>
+        <v>2468</v>
       </c>
       <c r="H28">
-        <v>14.74657534246575</v>
+        <v>14.02272727272727</v>
       </c>
       <c r="I28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J28">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>4.72</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>35.5</v>
       </c>
       <c r="M28">
         <v>15.703125</v>
       </c>
       <c r="N28">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O28">
-        <v>7.003725490196078</v>
+        <v>7.13</v>
       </c>
       <c r="P28">
-        <v>4.273137254901961</v>
+        <v>4.55</v>
       </c>
       <c r="Q28">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="R28">
-        <v>66.3</v>
+        <v>67.2</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="W28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>2020</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>185.42</v>
+        <v>193.04</v>
       </c>
       <c r="E29">
-        <v>39.708920575552</v>
+        <v>46.292783054399997</v>
       </c>
       <c r="F29">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G29">
-        <v>2742</v>
+        <v>1976</v>
       </c>
       <c r="H29">
-        <v>17.24528301886792</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I29">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J29">
         <v>36</v>
       </c>
       <c r="K29">
-        <v>4.45</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>15.703125</v>
+        <v>15</v>
       </c>
       <c r="N29">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O29">
-        <v>7.003725490196078</v>
+        <v>7.28</v>
       </c>
       <c r="P29">
-        <v>4.53</v>
+        <v>4.38</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="R29">
-        <v>78.40000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="S29">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="W29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>190.5</v>
+        <v>177.8</v>
       </c>
       <c r="E30">
-        <v>102.0582</v>
+        <v>83.007335999999995</v>
       </c>
       <c r="F30">
         <v>135</v>
       </c>
       <c r="G30">
-        <v>2219</v>
+        <v>2235</v>
       </c>
       <c r="H30">
-        <v>16.43703703703704</v>
+        <v>16.555555555555561</v>
       </c>
       <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>4.53</v>
+      </c>
+      <c r="L30">
+        <v>33.5</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30">
+        <v>123</v>
+      </c>
+      <c r="O30">
+        <v>7.09</v>
+      </c>
+      <c r="P30">
+        <v>4.45</v>
+      </c>
+      <c r="Q30">
+        <v>66</v>
+      </c>
+      <c r="R30">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
         <v>28</v>
       </c>
-      <c r="J30">
-        <v>33</v>
-      </c>
-      <c r="K30">
-        <v>4.5</v>
-      </c>
-      <c r="L30">
-        <v>36.47945205479452</v>
-      </c>
-      <c r="M30">
-        <v>15.703125</v>
-      </c>
-      <c r="N30">
-        <v>123.1388888888889</v>
-      </c>
-      <c r="O30">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P30">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q30">
-        <v>57</v>
-      </c>
-      <c r="R30">
-        <v>53</v>
-      </c>
-      <c r="S30">
-        <v>0.5</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
       <c r="U30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="W30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>185.42</v>
+        <v>190.5</v>
       </c>
       <c r="E31">
-        <v>44.23532602976</v>
+        <v>90.264808000000002</v>
       </c>
       <c r="F31">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>1351</v>
+      </c>
+      <c r="H31">
+        <v>20.469696969696969</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>4.34</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
         <v>129</v>
       </c>
-      <c r="G31">
-        <v>1465</v>
-      </c>
-      <c r="H31">
-        <v>11.35658914728682</v>
-      </c>
-      <c r="I31">
-        <v>16</v>
-      </c>
-      <c r="J31">
-        <v>47</v>
-      </c>
-      <c r="K31">
-        <v>4.47</v>
-      </c>
-      <c r="L31">
+      <c r="O31">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P31">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q31">
+        <v>61</v>
+      </c>
+      <c r="R31">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="S31">
+        <v>3.6</v>
+      </c>
+      <c r="T31">
+        <v>18</v>
+      </c>
+      <c r="U31">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V31">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>38</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
-      <c r="N31">
-        <v>123</v>
-      </c>
-      <c r="O31">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P31">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q31">
-        <v>151</v>
-      </c>
-      <c r="R31">
-        <v>58.2</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>11</v>
-      </c>
-      <c r="W31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>52</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>187.96</v>
       </c>
       <c r="E32">
-        <v>37.651463550912</v>
+        <v>41.972123302656001</v>
       </c>
       <c r="F32">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G32">
-        <v>1447</v>
+        <v>1327</v>
       </c>
       <c r="H32">
-        <v>17.64634146341463</v>
+        <v>12.88349514563107</v>
       </c>
       <c r="I32">
         <v>14</v>
       </c>
       <c r="J32">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>4.43</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="L32">
-        <v>38.5</v>
+        <v>44.5</v>
       </c>
       <c r="M32">
         <v>15.703125</v>
       </c>
       <c r="N32">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O32">
-        <v>7.07</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P32">
-        <v>4.21</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q32">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="R32">
-        <v>50.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="S32">
-        <v>0.3333333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="T32">
+        <v>16</v>
+      </c>
+      <c r="U32">
         <v>1</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
       <c r="V32">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="W32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B33">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>175.26</v>
+        <v>195.58</v>
       </c>
       <c r="E33">
-        <v>82.55374399999999</v>
+        <v>97.068687999999995</v>
       </c>
       <c r="F33">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="G33">
-        <v>2662</v>
+        <v>1484</v>
       </c>
       <c r="H33">
-        <v>14.08465608465609</v>
+        <v>16.130434782608699</v>
       </c>
       <c r="I33">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K33">
-        <v>4.56</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>120</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O33">
-        <v>6.77</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P33">
-        <v>4.16</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q33">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="R33">
-        <v>71.5</v>
+        <v>64.2</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V33">
-        <v>3</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>185.42</v>
+        <v>182.88</v>
       </c>
       <c r="E34">
-        <v>40.12041198048</v>
+        <v>40.943394790336001</v>
       </c>
       <c r="F34">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="G34">
-        <v>2415</v>
+        <v>996</v>
       </c>
       <c r="H34">
-        <v>14.63636363636364</v>
+        <v>14.647058823529409</v>
       </c>
       <c r="I34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K34">
-        <v>4.43</v>
+        <v>4.46</v>
       </c>
       <c r="L34">
-        <v>37.5</v>
+        <v>36.5</v>
       </c>
       <c r="M34">
-        <v>15.703125</v>
+        <v>16</v>
       </c>
       <c r="N34">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O34">
-        <v>7.003725490196078</v>
+        <v>7.05</v>
       </c>
       <c r="P34">
-        <v>4.273137254901961</v>
+        <v>4.26</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="R34">
-        <v>90.40000000000001</v>
+        <v>61.8</v>
       </c>
       <c r="S34">
-        <v>13</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T34">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="U34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="W34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B35">
+        <v>2020</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>190.5</v>
+      </c>
+      <c r="E35">
+        <v>43.618088922368003</v>
+      </c>
+      <c r="F35">
+        <v>157</v>
+      </c>
+      <c r="G35">
+        <v>2447</v>
+      </c>
+      <c r="H35">
+        <v>15.585987261146499</v>
+      </c>
+      <c r="I35">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <v>4.54</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>124</v>
+      </c>
+      <c r="O35">
+        <v>7.08</v>
+      </c>
+      <c r="P35">
+        <v>4.59</v>
+      </c>
+      <c r="Q35">
+        <v>128</v>
+      </c>
+      <c r="R35">
+        <v>64.2</v>
+      </c>
+      <c r="S35">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="T35">
+        <v>19</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>47</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
         <v>2019</v>
-      </c>
-      <c r="C35">
-        <v>23</v>
-      </c>
-      <c r="D35">
-        <v>185.42</v>
-      </c>
-      <c r="E35">
-        <v>95.25431999999999</v>
-      </c>
-      <c r="F35">
-        <v>60</v>
-      </c>
-      <c r="G35">
-        <v>807</v>
-      </c>
-      <c r="H35">
-        <v>13.45</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>21</v>
-      </c>
-      <c r="K35">
-        <v>4.6</v>
-      </c>
-      <c r="L35">
-        <v>36.47945205479452</v>
-      </c>
-      <c r="M35">
-        <v>15.703125</v>
-      </c>
-      <c r="N35">
-        <v>123.1388888888889</v>
-      </c>
-      <c r="O35">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P35">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q35">
-        <v>187</v>
-      </c>
-      <c r="R35">
-        <v>52.1</v>
-      </c>
-      <c r="S35">
-        <v>0.25</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>15</v>
-      </c>
-      <c r="W35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36">
-        <v>2020</v>
       </c>
       <c r="C36">
         <v>22</v>
       </c>
       <c r="D36">
-        <v>182.88</v>
+        <v>185.42</v>
       </c>
       <c r="E36">
-        <v>40.737649087872</v>
+        <v>97.975871999999995</v>
       </c>
       <c r="F36">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="G36">
-        <v>2332</v>
+        <v>2294</v>
       </c>
       <c r="H36">
-        <v>11.60199004975124</v>
+        <v>13.65476190476191</v>
       </c>
       <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>45</v>
+      </c>
+      <c r="K36">
+        <v>4.42</v>
+      </c>
+      <c r="L36">
+        <v>37</v>
+      </c>
+      <c r="M36">
         <v>20</v>
       </c>
-      <c r="J36">
-        <v>50</v>
-      </c>
-      <c r="K36">
-        <v>4.6</v>
-      </c>
-      <c r="L36">
-        <v>32.5</v>
-      </c>
-      <c r="M36">
-        <v>17</v>
-      </c>
       <c r="N36">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="O36">
-        <v>7.003725490196078</v>
+        <v>7.32</v>
       </c>
       <c r="P36">
-        <v>4.273137254901961</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Q36">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="R36">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="S36">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C37">
         <v>23</v>
       </c>
       <c r="D37">
-        <v>180.34</v>
+        <v>195.58</v>
       </c>
       <c r="E37">
-        <v>41.766377600192</v>
+        <v>102.965384</v>
       </c>
       <c r="F37">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="G37">
-        <v>2037</v>
+        <v>2149</v>
       </c>
       <c r="H37">
-        <v>13.95205479452055</v>
+        <v>19.536363636363639</v>
       </c>
       <c r="I37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J37">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K37">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="L37">
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="M37">
         <v>18</v>
       </c>
       <c r="N37">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O37">
-        <v>7</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P37">
-        <v>4.35</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q37">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="R37">
-        <v>65.09999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="S37">
-        <v>3.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="W37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" t="s">
-        <v>58</v>
-      </c>
       <c r="B38">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>185.42</v>
+        <v>182.88</v>
       </c>
       <c r="E38">
-        <v>91.171992</v>
+        <v>39.091683468159999</v>
       </c>
       <c r="F38">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="G38">
-        <v>3463</v>
+        <v>1716</v>
       </c>
       <c r="H38">
-        <v>12.59272727272727</v>
+        <v>17.510204081632651</v>
       </c>
       <c r="I38">
         <v>24</v>
       </c>
       <c r="J38">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>4.6</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>15.703125</v>
       </c>
       <c r="N38">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="O38">
-        <v>7.28</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P38">
-        <v>4.23</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q38">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="R38">
-        <v>61.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="S38">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="U38">
         <v>1</v>
       </c>
-      <c r="T38">
-        <v>4</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>2019</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>187.96</v>
+        <v>177.8</v>
       </c>
       <c r="E39">
-        <v>100.243832</v>
+        <v>83.914519999999996</v>
       </c>
       <c r="F39">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G39">
-        <v>2665</v>
+        <v>2133</v>
       </c>
       <c r="H39">
-        <v>15.05649717514124</v>
+        <v>11.46774193548387</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39">
+        <v>53</v>
+      </c>
+      <c r="K39">
+        <v>4.59</v>
+      </c>
+      <c r="L39">
         <v>35</v>
       </c>
-      <c r="K39">
-        <v>4.6</v>
-      </c>
-      <c r="L39">
-        <v>32.5</v>
-      </c>
       <c r="M39">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39">
-        <v>7.15</v>
+        <v>6.8</v>
       </c>
       <c r="P39">
-        <v>4.32</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="Q39">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="R39">
-        <v>63.9</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="S39">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="W39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>2020</v>
@@ -3484,637 +3502,637 @@
         <v>21</v>
       </c>
       <c r="D40">
-        <v>175.26</v>
+        <v>193.04</v>
       </c>
       <c r="E40">
-        <v>35.594006526272</v>
+        <v>43.000851814976002</v>
       </c>
       <c r="F40">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="G40">
-        <v>1658</v>
+        <v>2322</v>
       </c>
       <c r="H40">
-        <v>16.91836734693878</v>
+        <v>13.19318181818182</v>
       </c>
       <c r="I40">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J40">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K40">
-        <v>4.27</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="L40">
-        <v>36.47945205479452</v>
+        <v>36.5</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N40">
-        <v>123.1388888888889</v>
+        <v>124</v>
       </c>
       <c r="O40">
-        <v>7.003725490196078</v>
+        <v>7.01</v>
       </c>
       <c r="P40">
-        <v>4.273137254901961</v>
+        <v>4.12</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="R40">
-        <v>57.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="S40">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="W40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B41">
+        <v>2018</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>190.5</v>
+      </c>
+      <c r="E41">
+        <v>93.893544000000006</v>
+      </c>
+      <c r="F41">
+        <v>158</v>
+      </c>
+      <c r="G41">
+        <v>2477</v>
+      </c>
+      <c r="H41">
+        <v>15.67721518987342</v>
+      </c>
+      <c r="I41">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>47</v>
+      </c>
+      <c r="K41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L41">
+        <v>38</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>120</v>
+      </c>
+      <c r="O41">
+        <v>6.56</v>
+      </c>
+      <c r="P41">
+        <v>4.04</v>
+      </c>
+      <c r="Q41">
+        <v>265</v>
+      </c>
+      <c r="R41">
+        <v>53.5</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V41">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>2018</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>195.58</v>
+      </c>
+      <c r="E42">
+        <v>98.883055999999996</v>
+      </c>
+      <c r="F42">
+        <v>99</v>
+      </c>
+      <c r="G42">
+        <v>1362</v>
+      </c>
+      <c r="H42">
+        <v>13.75757575757576</v>
+      </c>
+      <c r="I42">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>23</v>
+      </c>
+      <c r="K42">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L42">
+        <v>34.5</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>124</v>
+      </c>
+      <c r="O42">
+        <v>7.2</v>
+      </c>
+      <c r="P42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q42">
+        <v>132</v>
+      </c>
+      <c r="R42">
+        <v>78.3</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V42">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
         <v>2020</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>21</v>
       </c>
-      <c r="D41">
-        <v>187.96</v>
-      </c>
-      <c r="E41">
-        <v>45.26405454208</v>
-      </c>
-      <c r="F41">
-        <v>149</v>
-      </c>
-      <c r="G41">
-        <v>1943</v>
-      </c>
-      <c r="H41">
-        <v>13.04026845637584</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-      <c r="J41">
-        <v>27</v>
-      </c>
-      <c r="K41">
-        <v>4.58</v>
-      </c>
-      <c r="L41">
-        <v>36.47945205479452</v>
-      </c>
-      <c r="M41">
+      <c r="D43">
+        <v>180.34</v>
+      </c>
+      <c r="E43">
+        <v>40.531903385408</v>
+      </c>
+      <c r="F43">
+        <v>148</v>
+      </c>
+      <c r="G43">
+        <v>2248</v>
+      </c>
+      <c r="H43">
+        <v>15.189189189189189</v>
+      </c>
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>29</v>
+      </c>
+      <c r="K43">
+        <v>4.47</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
         <v>17</v>
       </c>
-      <c r="N41">
+      <c r="N43">
+        <v>138</v>
+      </c>
+      <c r="O43">
+        <v>7.31</v>
+      </c>
+      <c r="P43">
+        <v>4.46</v>
+      </c>
+      <c r="Q43">
+        <v>21</v>
+      </c>
+      <c r="R43">
+        <v>68.2</v>
+      </c>
+      <c r="S43">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>45</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>2020</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>180.34</v>
+      </c>
+      <c r="E44">
+        <v>39.091683468159999</v>
+      </c>
+      <c r="F44">
+        <v>301</v>
+      </c>
+      <c r="G44">
+        <v>3949</v>
+      </c>
+      <c r="H44">
+        <v>13.11960132890365</v>
+      </c>
+      <c r="I44">
+        <v>39</v>
+      </c>
+      <c r="J44">
+        <v>49</v>
+      </c>
+      <c r="K44">
+        <v>4.55</v>
+      </c>
+      <c r="L44">
+        <v>34.5</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
         <v>123.1388888888889</v>
       </c>
-      <c r="O41">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P41">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q41">
-        <v>42</v>
-      </c>
-      <c r="R41">
-        <v>85</v>
-      </c>
-      <c r="S41">
-        <v>4</v>
-      </c>
-      <c r="T41">
-        <v>12</v>
-      </c>
-      <c r="U41">
+      <c r="O44">
+        <v>7.27</v>
+      </c>
+      <c r="P44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q44">
+        <v>201</v>
+      </c>
+      <c r="R44">
+        <v>44.7</v>
+      </c>
+      <c r="S44">
         <v>1</v>
       </c>
-      <c r="V41">
-        <v>43</v>
-      </c>
-      <c r="W41">
+      <c r="T44">
         <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42">
-        <v>2020</v>
-      </c>
-      <c r="C42">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>180.34</v>
-      </c>
-      <c r="E42">
-        <v>40.943394790336</v>
-      </c>
-      <c r="F42">
-        <v>114</v>
-      </c>
-      <c r="G42">
-        <v>1303</v>
-      </c>
-      <c r="H42">
-        <v>11.42982456140351</v>
-      </c>
-      <c r="I42">
-        <v>6</v>
-      </c>
-      <c r="J42">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>4.45</v>
-      </c>
-      <c r="L42">
-        <v>36.47945205479452</v>
-      </c>
-      <c r="M42">
-        <v>13</v>
-      </c>
-      <c r="N42">
-        <v>123.1388888888889</v>
-      </c>
-      <c r="O42">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P42">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q42">
-        <v>80</v>
-      </c>
-      <c r="R42">
-        <v>68.8</v>
-      </c>
-      <c r="S42">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>11</v>
-      </c>
-      <c r="W42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43">
-        <v>2019</v>
-      </c>
-      <c r="C43">
-        <v>22</v>
-      </c>
-      <c r="D43">
-        <v>175.26</v>
-      </c>
-      <c r="E43">
-        <v>77.11064</v>
-      </c>
-      <c r="F43">
-        <v>132</v>
-      </c>
-      <c r="G43">
-        <v>2413</v>
-      </c>
-      <c r="H43">
-        <v>18.28030303030303</v>
-      </c>
-      <c r="I43">
-        <v>17</v>
-      </c>
-      <c r="J43">
-        <v>25</v>
-      </c>
-      <c r="K43">
-        <v>4.33</v>
-      </c>
-      <c r="L43">
-        <v>36.47945205479452</v>
-      </c>
-      <c r="M43">
-        <v>15.703125</v>
-      </c>
-      <c r="N43">
-        <v>123.1388888888889</v>
-      </c>
-      <c r="O43">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P43">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q43">
-        <v>25</v>
-      </c>
-      <c r="R43">
-        <v>69.2</v>
-      </c>
-      <c r="S43">
-        <v>7.25</v>
-      </c>
-      <c r="T43">
-        <v>29</v>
-      </c>
-      <c r="U43">
-        <v>3</v>
-      </c>
-      <c r="V43">
-        <v>58</v>
-      </c>
-      <c r="W43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44">
-        <v>2019</v>
-      </c>
-      <c r="C44">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>177.8</v>
-      </c>
-      <c r="E44">
-        <v>84.821704</v>
-      </c>
-      <c r="F44">
-        <v>60</v>
-      </c>
-      <c r="G44">
-        <v>961</v>
-      </c>
-      <c r="H44">
-        <v>16.01666666666667</v>
-      </c>
-      <c r="I44">
-        <v>11</v>
-      </c>
-      <c r="J44">
-        <v>33</v>
-      </c>
-      <c r="K44">
-        <v>4.33</v>
-      </c>
-      <c r="L44">
-        <v>36.5</v>
-      </c>
-      <c r="M44">
-        <v>17</v>
-      </c>
-      <c r="N44">
-        <v>119</v>
-      </c>
-      <c r="O44">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P44">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q44">
-        <v>56</v>
-      </c>
-      <c r="R44">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="S44">
-        <v>5.5</v>
-      </c>
-      <c r="T44">
-        <v>22</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B45">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C45">
         <v>22</v>
       </c>
       <c r="D45">
-        <v>193.04</v>
+        <v>180.34</v>
       </c>
       <c r="E45">
-        <v>45.26405454208</v>
+        <v>96.615095999999994</v>
       </c>
       <c r="F45">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="G45">
-        <v>2519</v>
+        <v>4472</v>
       </c>
       <c r="H45">
-        <v>14.73099415204678</v>
+        <v>19.787610619469032</v>
       </c>
       <c r="I45">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J45">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="L45">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O45">
-        <v>6.96</v>
+        <v>7.11</v>
       </c>
       <c r="P45">
-        <v>4.14</v>
+        <v>4.32</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="R45">
-        <v>70.59999999999999</v>
+        <v>52.3</v>
       </c>
       <c r="S45">
-        <v>7.666666666666667</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T45">
+        <v>11</v>
+      </c>
+      <c r="U45">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V45">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46">
         <v>23</v>
       </c>
-      <c r="U45">
-        <v>3</v>
-      </c>
-      <c r="V45">
-        <v>46</v>
-      </c>
-      <c r="W45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46">
-        <v>2019</v>
-      </c>
-      <c r="C46">
-        <v>22</v>
-      </c>
       <c r="D46">
-        <v>193.04</v>
+        <v>190.5</v>
       </c>
       <c r="E46">
-        <v>99.79024</v>
+        <v>43.618088922368003</v>
       </c>
       <c r="F46">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="G46">
-        <v>1206</v>
+        <v>2153</v>
       </c>
       <c r="H46">
-        <v>15.66233766233766</v>
+        <v>14.74657534246575</v>
       </c>
       <c r="I46">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J46">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>4.42</v>
+        <v>4.72</v>
       </c>
       <c r="L46">
-        <v>43.5</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>15.703125</v>
       </c>
       <c r="N46">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O46">
-        <v>6.77</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P46">
-        <v>4.07</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q46">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="R46">
-        <v>63.1</v>
+        <v>66.3</v>
       </c>
       <c r="S46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>6</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="W46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B47">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>193.04</v>
+        <v>190.5</v>
       </c>
       <c r="E47">
-        <v>102.0582</v>
+        <v>97.522279999999995</v>
       </c>
       <c r="F47">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>2889</v>
+        <v>910</v>
       </c>
       <c r="H47">
-        <v>13.56338028169014</v>
+        <v>14.67741935483871</v>
       </c>
       <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
         <v>22</v>
-      </c>
-      <c r="J47">
-        <v>37</v>
       </c>
       <c r="K47">
         <v>4.53</v>
       </c>
       <c r="L47">
-        <v>38.5</v>
+        <v>33.5</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>15.703125</v>
       </c>
       <c r="N47">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O47">
-        <v>7.003725490196078</v>
+        <v>7</v>
       </c>
       <c r="P47">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q47">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="R47">
-        <v>65.09999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="S47">
-        <v>1.75</v>
+        <v>0.2</v>
       </c>
       <c r="T47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V47">
-        <v>40</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>182.88</v>
+        <v>185.42</v>
       </c>
       <c r="E48">
-        <v>92.532768</v>
+        <v>39.708920575552</v>
       </c>
       <c r="F48">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="G48">
-        <v>2019</v>
+        <v>2742</v>
       </c>
       <c r="H48">
-        <v>16.152</v>
+        <v>17.245283018867919</v>
       </c>
       <c r="I48">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J48">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K48">
-        <v>4.51</v>
+        <v>4.45</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>15.703125</v>
       </c>
       <c r="N48">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O48">
-        <v>6.88</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P48">
-        <v>4.16</v>
+        <v>4.53</v>
       </c>
       <c r="Q48">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="R48">
-        <v>67</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="S48">
-        <v>1.25</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="W48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>2019</v>
@@ -4123,69 +4141,69 @@
         <v>22</v>
       </c>
       <c r="D49">
-        <v>182.88</v>
+        <v>190.5</v>
       </c>
       <c r="E49">
-        <v>94.34713600000001</v>
+        <v>102.0582</v>
       </c>
       <c r="F49">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G49">
-        <v>1768</v>
+        <v>2219</v>
       </c>
       <c r="H49">
-        <v>12.36363636363636</v>
+        <v>16.43703703703704</v>
       </c>
       <c r="I49">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J49">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K49">
-        <v>4.31</v>
+        <v>4.5</v>
       </c>
       <c r="L49">
+        <v>36.479452054794521</v>
+      </c>
+      <c r="M49">
+        <v>15.703125</v>
+      </c>
+      <c r="N49">
+        <v>123.1388888888889</v>
+      </c>
+      <c r="O49">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P49">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q49">
+        <v>57</v>
+      </c>
+      <c r="R49">
+        <v>53</v>
+      </c>
+      <c r="S49">
+        <v>0.5</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <v>40</v>
-      </c>
-      <c r="M49">
-        <v>11</v>
-      </c>
-      <c r="N49">
-        <v>135</v>
-      </c>
-      <c r="O49">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P49">
-        <v>4.03</v>
-      </c>
-      <c r="Q49">
-        <v>59</v>
-      </c>
-      <c r="R49">
-        <v>60.8</v>
-      </c>
-      <c r="S49">
-        <v>2.25</v>
-      </c>
-      <c r="T49">
-        <v>9</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>32</v>
       </c>
       <c r="W49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>2020</v>
@@ -4194,569 +4212,569 @@
         <v>22</v>
       </c>
       <c r="D50">
-        <v>182.88</v>
+        <v>185.42</v>
       </c>
       <c r="E50">
-        <v>39.708920575552</v>
+        <v>44.235326029760003</v>
       </c>
       <c r="F50">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G50">
-        <v>2404</v>
+        <v>1465</v>
       </c>
       <c r="H50">
-        <v>15.11949685534591</v>
+        <v>11.356589147286821</v>
       </c>
       <c r="I50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>4.35</v>
+        <v>4.47</v>
       </c>
       <c r="L50">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="M50">
-        <v>15.703125</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O50">
-        <v>7.28</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P50">
-        <v>4.36</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q50">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="R50">
-        <v>55.1</v>
+        <v>58.2</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>185.42</v>
+        <v>187.96</v>
       </c>
       <c r="E51">
-        <v>42.795106112512</v>
+        <v>37.651463550911998</v>
       </c>
       <c r="F51">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G51">
-        <v>1496</v>
+        <v>1447</v>
       </c>
       <c r="H51">
-        <v>16.08602150537634</v>
+        <v>17.646341463414629</v>
       </c>
       <c r="I51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J51">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K51">
-        <v>4.73</v>
+        <v>4.43</v>
       </c>
       <c r="L51">
         <v>38.5</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>15.703125</v>
       </c>
       <c r="N51">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O51">
-        <v>7.2</v>
+        <v>7.07</v>
       </c>
       <c r="P51">
-        <v>4.33</v>
+        <v>4.21</v>
       </c>
       <c r="Q51">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R51">
-        <v>68</v>
+        <v>50.5</v>
       </c>
       <c r="S51">
-        <v>1.666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="W51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>2019</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>185.42</v>
+        <v>175.26</v>
       </c>
       <c r="E52">
-        <v>90.264808</v>
+        <v>82.553743999999995</v>
       </c>
       <c r="F52">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="G52">
-        <v>1015</v>
+        <v>2662</v>
       </c>
       <c r="H52">
-        <v>14.71014492753623</v>
+        <v>14.084656084656091</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J52">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K52">
-        <v>4.58</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="L52">
-        <v>30.5</v>
+        <v>37</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O52">
-        <v>7.22</v>
+        <v>6.77</v>
       </c>
       <c r="P52">
-        <v>4.28</v>
+        <v>4.16</v>
       </c>
       <c r="Q52">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="R52">
-        <v>73</v>
+        <v>71.5</v>
       </c>
       <c r="S52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>185.42</v>
+      </c>
+      <c r="E53">
+        <v>40.12041198048</v>
+      </c>
+      <c r="F53">
+        <v>165</v>
+      </c>
+      <c r="G53">
+        <v>2415</v>
+      </c>
+      <c r="H53">
+        <v>14.63636363636364</v>
+      </c>
+      <c r="I53">
+        <v>24</v>
+      </c>
+      <c r="J53">
+        <v>30</v>
+      </c>
+      <c r="K53">
+        <v>4.43</v>
+      </c>
+      <c r="L53">
+        <v>37.5</v>
+      </c>
+      <c r="M53">
+        <v>15.703125</v>
+      </c>
+      <c r="N53">
+        <v>126</v>
+      </c>
+      <c r="O53">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P53">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q53">
         <v>22</v>
       </c>
-      <c r="D53">
-        <v>175.26</v>
-      </c>
-      <c r="E53">
-        <v>78.92500800000001</v>
-      </c>
-      <c r="F53">
-        <v>215</v>
-      </c>
-      <c r="G53">
-        <v>2867</v>
-      </c>
-      <c r="H53">
-        <v>13.33488372093023</v>
-      </c>
-      <c r="I53">
-        <v>23</v>
-      </c>
-      <c r="J53">
-        <v>45</v>
-      </c>
-      <c r="K53">
-        <v>4.36</v>
-      </c>
-      <c r="L53">
-        <v>34</v>
-      </c>
-      <c r="M53">
-        <v>15</v>
-      </c>
-      <c r="N53">
-        <v>123</v>
-      </c>
-      <c r="O53">
-        <v>6.97</v>
-      </c>
-      <c r="P53">
-        <v>4.02</v>
-      </c>
-      <c r="Q53">
-        <v>208</v>
-      </c>
       <c r="R53">
-        <v>55.9</v>
+        <v>90.4</v>
       </c>
       <c r="S53">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="T53">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V53">
         <v>50</v>
       </c>
       <c r="W53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B54">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>193.04</v>
+        <v>187.96</v>
       </c>
       <c r="E54">
-        <v>45.058308839616</v>
+        <v>97.522279999999995</v>
       </c>
       <c r="F54">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="G54">
-        <v>2448</v>
+        <v>3777</v>
       </c>
       <c r="H54">
-        <v>18.13333333333333</v>
+        <v>13.20629370629371</v>
       </c>
       <c r="I54">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J54">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>4.54</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="L54">
-        <v>36.47945205479452</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>15.703125</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>123.1388888888889</v>
+        <v>124</v>
       </c>
       <c r="O54">
-        <v>7.003725490196078</v>
+        <v>7.08</v>
       </c>
       <c r="P54">
-        <v>4.273137254901961</v>
+        <v>4.26</v>
       </c>
       <c r="Q54">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="R54">
-        <v>77.09999999999999</v>
+        <v>52.7</v>
       </c>
       <c r="S54">
-        <v>8.666666666666666</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="U54">
-        <v>3</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V54">
-        <v>46</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>2019</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>180.34</v>
+        <v>185.42</v>
       </c>
       <c r="E55">
-        <v>83.91452</v>
+        <v>95.254319999999993</v>
       </c>
       <c r="F55">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="G55">
-        <v>1800</v>
+        <v>807</v>
       </c>
       <c r="H55">
-        <v>13.43283582089552</v>
+        <v>13.45</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J55">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K55">
-        <v>4.55</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L55">
-        <v>36.5</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M55">
         <v>15.703125</v>
       </c>
       <c r="N55">
-        <v>117</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O55">
-        <v>6.96</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P55">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q55">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="R55">
-        <v>55.2</v>
+        <v>52.1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56">
         <v>182.88</v>
       </c>
       <c r="E56">
-        <v>95.25431999999999</v>
+        <v>40.737649087872001</v>
       </c>
       <c r="F56">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="G56">
-        <v>1251</v>
+        <v>2332</v>
       </c>
       <c r="H56">
-        <v>16.68</v>
+        <v>11.60199004975124</v>
       </c>
       <c r="I56">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J56">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>4.35</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L56">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O56">
-        <v>7.01</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P56">
-        <v>4.15</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q56">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="R56">
-        <v>79.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="S56">
-        <v>7.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T56">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="W56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C57">
         <v>23</v>
       </c>
       <c r="D57">
-        <v>190.5</v>
+        <v>180.34</v>
       </c>
       <c r="E57">
-        <v>97.52227999999999</v>
+        <v>41.766377600192001</v>
       </c>
       <c r="F57">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G57">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="H57">
-        <v>15.96875</v>
+        <v>13.952054794520549</v>
       </c>
       <c r="I57">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>46</v>
+      </c>
+      <c r="K57">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="L57">
+        <v>37.5</v>
+      </c>
+      <c r="M57">
         <v>18</v>
       </c>
-      <c r="J57">
-        <v>39</v>
-      </c>
-      <c r="K57">
-        <v>4.58</v>
-      </c>
-      <c r="L57">
-        <v>36.5</v>
-      </c>
-      <c r="M57">
-        <v>15</v>
-      </c>
       <c r="N57">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O57">
-        <v>7.003725490196078</v>
+        <v>7</v>
       </c>
       <c r="P57">
-        <v>4.273137254901961</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="Q57">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="R57">
-        <v>71.2</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="T57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U57">
         <v>1</v>
       </c>
       <c r="V57">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="W57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C58">
         <v>22</v>
@@ -4765,705 +4783,705 @@
         <v>185.42</v>
       </c>
       <c r="E58">
-        <v>42.383614707584</v>
+        <v>91.171992000000003</v>
       </c>
       <c r="F58">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="G58">
-        <v>3305</v>
+        <v>3463</v>
       </c>
       <c r="H58">
-        <v>15.51643192488263</v>
+        <v>12.59272727272727</v>
       </c>
       <c r="I58">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J58">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L58">
-        <v>36.47945205479452</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>15.703125</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>123.1388888888889</v>
+        <v>117</v>
       </c>
       <c r="O58">
-        <v>7.003725490196078</v>
+        <v>7.28</v>
       </c>
       <c r="P58">
-        <v>4.273137254901961</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="Q58">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="R58">
-        <v>55.4</v>
+        <v>61.2</v>
       </c>
       <c r="S58">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="W58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>2018</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>177.8</v>
+      </c>
+      <c r="E59">
+        <v>82.100151999999994</v>
+      </c>
+      <c r="F59">
+        <v>159</v>
+      </c>
+      <c r="G59">
+        <v>2424</v>
+      </c>
+      <c r="H59">
+        <v>15.245283018867919</v>
+      </c>
+      <c r="I59">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>4.43</v>
+      </c>
+      <c r="L59">
+        <v>34.5</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>113</v>
+      </c>
+      <c r="O59">
+        <v>6.93</v>
+      </c>
+      <c r="P59">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q59">
+        <v>103</v>
+      </c>
+      <c r="R59">
+        <v>37.5</v>
+      </c>
+      <c r="S59">
+        <v>1.4</v>
+      </c>
+      <c r="T59">
+        <v>7</v>
+      </c>
+      <c r="U59">
+        <v>1.1379310344827589</v>
+      </c>
+      <c r="V59">
+        <v>34.810344827586214</v>
+      </c>
+      <c r="W59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2019</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>187.96</v>
+      </c>
+      <c r="E60">
+        <v>100.243832</v>
+      </c>
+      <c r="F60">
+        <v>177</v>
+      </c>
+      <c r="G60">
+        <v>2665</v>
+      </c>
+      <c r="H60">
+        <v>15.05649717514124</v>
+      </c>
+      <c r="I60">
+        <v>16</v>
+      </c>
+      <c r="J60">
+        <v>35</v>
+      </c>
+      <c r="K60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L60">
+        <v>32.5</v>
+      </c>
+      <c r="M60">
+        <v>18</v>
+      </c>
+      <c r="N60">
+        <v>117</v>
+      </c>
+      <c r="O60">
+        <v>7.15</v>
+      </c>
+      <c r="P60">
+        <v>4.32</v>
+      </c>
+      <c r="Q60">
+        <v>206</v>
+      </c>
+      <c r="R60">
+        <v>63.9</v>
+      </c>
+      <c r="S60">
+        <v>0.75</v>
+      </c>
+      <c r="T60">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59">
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>16</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>2020</v>
       </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>185.42</v>
-      </c>
-      <c r="E59">
-        <v>41.1491404928</v>
-      </c>
-      <c r="F59">
-        <v>175</v>
-      </c>
-      <c r="G59">
-        <v>2159</v>
-      </c>
-      <c r="H59">
-        <v>12.33714285714286</v>
-      </c>
-      <c r="I59">
-        <v>16</v>
-      </c>
-      <c r="J59">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>4.39</v>
-      </c>
-      <c r="L59">
-        <v>36.47945205479452</v>
-      </c>
-      <c r="M59">
-        <v>15.703125</v>
-      </c>
-      <c r="N59">
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>175.26</v>
+      </c>
+      <c r="E61">
+        <v>35.594006526271997</v>
+      </c>
+      <c r="F61">
+        <v>98</v>
+      </c>
+      <c r="G61">
+        <v>1658</v>
+      </c>
+      <c r="H61">
+        <v>16.91836734693878</v>
+      </c>
+      <c r="I61">
+        <v>13</v>
+      </c>
+      <c r="J61">
+        <v>26</v>
+      </c>
+      <c r="K61">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L61">
+        <v>36.479452054794521</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61">
         <v>123.1388888888889</v>
       </c>
-      <c r="O59">
-        <v>7.003725490196078</v>
-      </c>
-      <c r="P59">
-        <v>4.273137254901961</v>
-      </c>
-      <c r="Q59">
-        <v>57</v>
-      </c>
-      <c r="R59">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="S59">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="T59">
-        <v>13</v>
-      </c>
-      <c r="U59">
-        <v>2</v>
-      </c>
-      <c r="V59">
-        <v>44</v>
-      </c>
-      <c r="W59">
+      <c r="O61">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P61">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q61">
+        <v>46</v>
+      </c>
+      <c r="R61">
+        <v>57.5</v>
+      </c>
+      <c r="S61">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="T61">
+        <v>5</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>23</v>
+      </c>
+      <c r="W61">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
-      <c r="A60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60">
-        <v>2018</v>
-      </c>
-      <c r="C60">
-        <v>23</v>
-      </c>
-      <c r="D60">
-        <v>190.5</v>
-      </c>
-      <c r="E60">
-        <v>93.89354400000001</v>
-      </c>
-      <c r="F60">
-        <v>158</v>
-      </c>
-      <c r="G60">
-        <v>2477</v>
-      </c>
-      <c r="H60">
-        <v>15.67721518987342</v>
-      </c>
-      <c r="I60">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2020</v>
+      </c>
+      <c r="C62">
         <v>21</v>
       </c>
-      <c r="J60">
-        <v>47</v>
-      </c>
-      <c r="K60">
-        <v>4.6</v>
-      </c>
-      <c r="L60">
-        <v>38</v>
-      </c>
-      <c r="M60">
-        <v>21</v>
-      </c>
-      <c r="N60">
-        <v>120</v>
-      </c>
-      <c r="O60">
-        <v>6.56</v>
-      </c>
-      <c r="P60">
-        <v>4.04</v>
-      </c>
-      <c r="Q60">
-        <v>265</v>
-      </c>
-      <c r="R60">
-        <v>53.5</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>1.137931034482759</v>
-      </c>
-      <c r="V60">
-        <v>34.81034482758621</v>
-      </c>
-      <c r="W60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61">
-        <v>2018</v>
-      </c>
-      <c r="C61">
-        <v>23</v>
-      </c>
-      <c r="D61">
-        <v>195.58</v>
-      </c>
-      <c r="E61">
-        <v>98.883056</v>
-      </c>
-      <c r="F61">
-        <v>99</v>
-      </c>
-      <c r="G61">
-        <v>1362</v>
-      </c>
-      <c r="H61">
-        <v>13.75757575757576</v>
-      </c>
-      <c r="I61">
-        <v>14</v>
-      </c>
-      <c r="J61">
-        <v>23</v>
-      </c>
-      <c r="K61">
-        <v>4.56</v>
-      </c>
-      <c r="L61">
-        <v>34.5</v>
-      </c>
-      <c r="M61">
-        <v>16</v>
-      </c>
-      <c r="N61">
-        <v>124</v>
-      </c>
-      <c r="O61">
-        <v>7.2</v>
-      </c>
-      <c r="P61">
-        <v>4.4</v>
-      </c>
-      <c r="Q61">
-        <v>132</v>
-      </c>
-      <c r="R61">
-        <v>78.3</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>1.137931034482759</v>
-      </c>
-      <c r="V61">
-        <v>34.81034482758621</v>
-      </c>
-      <c r="W61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62">
-        <v>2018</v>
-      </c>
-      <c r="C62">
-        <v>23</v>
-      </c>
       <c r="D62">
-        <v>185.42</v>
+        <v>187.96</v>
       </c>
       <c r="E62">
-        <v>90.264808</v>
+        <v>45.264054542079997</v>
       </c>
       <c r="F62">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="G62">
-        <v>2842</v>
+        <v>1943</v>
       </c>
       <c r="H62">
-        <v>13.2803738317757</v>
+        <v>13.04026845637584</v>
       </c>
       <c r="I62">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J62">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K62">
-        <v>4.486705882352942</v>
+        <v>4.58</v>
       </c>
       <c r="L62">
-        <v>34.5</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M62">
-        <v>15.703125</v>
+        <v>17</v>
       </c>
       <c r="N62">
-        <v>118</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O62">
-        <v>6.84</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P62">
-        <v>4.15</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q62">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="R62">
-        <v>58.4</v>
+        <v>85</v>
       </c>
       <c r="S62">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="T62">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U62">
-        <v>1.137931034482759</v>
+        <v>1</v>
       </c>
       <c r="V62">
-        <v>34.81034482758621</v>
+        <v>43</v>
       </c>
       <c r="W62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63">
         <v>180.34</v>
       </c>
       <c r="E63">
-        <v>90.7184</v>
+        <v>40.943394790336001</v>
       </c>
       <c r="F63">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G63">
-        <v>1399</v>
+        <v>1303</v>
       </c>
       <c r="H63">
-        <v>15.71910112359551</v>
+        <v>11.42982456140351</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J63">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K63">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="L63">
-        <v>43</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M63">
-        <v>15.703125</v>
+        <v>13</v>
       </c>
       <c r="N63">
-        <v>121</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O63">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P63">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q63">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="R63">
-        <v>60.5</v>
+        <v>68.8</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>34.81034482758621</v>
+        <v>11</v>
       </c>
       <c r="W63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>2018</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>177.8</v>
+        <v>193.04</v>
       </c>
       <c r="E64">
-        <v>82.10015199999999</v>
+        <v>97.975871999999995</v>
       </c>
       <c r="F64">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G64">
-        <v>2424</v>
+        <v>2466</v>
       </c>
       <c r="H64">
-        <v>15.24528301886792</v>
+        <v>16.890410958904109</v>
       </c>
       <c r="I64">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J64">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>4.43</v>
+        <v>4.62</v>
       </c>
       <c r="L64">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N64">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O64">
-        <v>6.93</v>
+        <v>7.07</v>
       </c>
       <c r="P64">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="Q64">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="R64">
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="S64">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="T64">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V64">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>2018</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>187.96</v>
+        <v>193.04</v>
       </c>
       <c r="E65">
-        <v>92.079176</v>
+        <v>93.439952000000005</v>
       </c>
       <c r="F65">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="G65">
-        <v>2748</v>
+        <v>1832</v>
       </c>
       <c r="H65">
-        <v>16.35714285714286</v>
+        <v>15.394957983193279</v>
       </c>
       <c r="I65">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J65">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K65">
-        <v>4.49</v>
+        <v>4.37</v>
       </c>
       <c r="L65">
-        <v>37.5</v>
+        <v>30.5</v>
       </c>
       <c r="M65">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N65">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O65">
-        <v>6.97</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P65">
-        <v>4.5</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q65">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="R65">
-        <v>69</v>
+        <v>62.6</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="T65">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="U65">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V65">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B66">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C66">
         <v>22</v>
       </c>
       <c r="D66">
-        <v>185.42</v>
+        <v>175.26</v>
       </c>
       <c r="E66">
-        <v>92.98636</v>
+        <v>77.110640000000004</v>
       </c>
       <c r="F66">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="G66">
-        <v>2690</v>
+        <v>2413</v>
       </c>
       <c r="H66">
-        <v>15.28409090909091</v>
+        <v>18.280303030303031</v>
       </c>
       <c r="I66">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K66">
-        <v>4.51</v>
+        <v>4.33</v>
       </c>
       <c r="L66">
-        <v>36</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>15.703125</v>
       </c>
       <c r="N66">
-        <v>122</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O66">
-        <v>6.95</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P66">
-        <v>4.37</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q66">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="R66">
-        <v>62.8</v>
+        <v>69.2</v>
       </c>
       <c r="S66">
-        <v>5.2</v>
+        <v>7.25</v>
       </c>
       <c r="T66">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U66">
-        <v>1.137931034482759</v>
+        <v>3</v>
       </c>
       <c r="V66">
-        <v>34.81034482758621</v>
+        <v>58</v>
       </c>
       <c r="W66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B67">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C67">
         <v>21</v>
       </c>
       <c r="D67">
-        <v>190.5</v>
+        <v>177.8</v>
       </c>
       <c r="E67">
-        <v>90.264808</v>
+        <v>84.821703999999997</v>
       </c>
       <c r="F67">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G67">
-        <v>1351</v>
+        <v>961</v>
       </c>
       <c r="H67">
-        <v>20.46969696969697</v>
+        <v>16.016666666666669</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J67">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K67">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="L67">
-        <v>40</v>
+        <v>36.5</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O67">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P67">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q67">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R67">
-        <v>69.59999999999999</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="S67">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T67">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U67">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>34.81034482758621</v>
+        <v>57</v>
       </c>
       <c r="W67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68">
         <v>2018</v>
@@ -5472,566 +5490,566 @@
         <v>22</v>
       </c>
       <c r="D68">
-        <v>180.34</v>
+        <v>185.42</v>
       </c>
       <c r="E68">
-        <v>96.61509599999999</v>
+        <v>92.986360000000005</v>
       </c>
       <c r="F68">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="G68">
-        <v>4472</v>
+        <v>2690</v>
       </c>
       <c r="H68">
-        <v>19.78761061946903</v>
+        <v>15.28409090909091</v>
       </c>
       <c r="I68">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J68">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="K68">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="L68">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N68">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O68">
-        <v>7.11</v>
+        <v>6.95</v>
       </c>
       <c r="P68">
-        <v>4.32</v>
+        <v>4.37</v>
       </c>
       <c r="Q68">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="R68">
-        <v>52.3</v>
+        <v>62.8</v>
       </c>
       <c r="S68">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="T68">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="U68">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V68">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W68">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B69">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>193.04</v>
+      </c>
+      <c r="E69">
+        <v>45.264054542079997</v>
+      </c>
+      <c r="F69">
+        <v>171</v>
+      </c>
+      <c r="G69">
+        <v>2519</v>
+      </c>
+      <c r="H69">
+        <v>14.73099415204678</v>
+      </c>
+      <c r="I69">
+        <v>19</v>
+      </c>
+      <c r="J69">
+        <v>41</v>
+      </c>
+      <c r="K69">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="L69">
+        <v>36.5</v>
+      </c>
+      <c r="M69">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>121</v>
+      </c>
+      <c r="O69">
+        <v>6.96</v>
+      </c>
+      <c r="P69">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q69">
+        <v>34</v>
+      </c>
+      <c r="R69">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="S69">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="T69">
         <v>23</v>
       </c>
-      <c r="D69">
-        <v>180.34</v>
-      </c>
-      <c r="E69">
-        <v>91.171992</v>
-      </c>
-      <c r="F69">
-        <v>238</v>
-      </c>
-      <c r="G69">
-        <v>3590</v>
-      </c>
-      <c r="H69">
-        <v>15.08403361344538</v>
-      </c>
-      <c r="I69">
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>46</v>
+      </c>
+      <c r="W69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>2019</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>193.04</v>
+      </c>
+      <c r="E70">
+        <v>99.790239999999997</v>
+      </c>
+      <c r="F70">
+        <v>77</v>
+      </c>
+      <c r="G70">
+        <v>1206</v>
+      </c>
+      <c r="H70">
+        <v>15.662337662337659</v>
+      </c>
+      <c r="I70">
+        <v>11</v>
+      </c>
+      <c r="J70">
+        <v>26</v>
+      </c>
+      <c r="K70">
+        <v>4.42</v>
+      </c>
+      <c r="L70">
+        <v>43.5</v>
+      </c>
+      <c r="M70">
+        <v>12</v>
+      </c>
+      <c r="N70">
+        <v>140</v>
+      </c>
+      <c r="O70">
+        <v>6.77</v>
+      </c>
+      <c r="P70">
+        <v>4.07</v>
+      </c>
+      <c r="Q70">
+        <v>93</v>
+      </c>
+      <c r="R70">
+        <v>63.1</v>
+      </c>
+      <c r="S70">
+        <v>1.5</v>
+      </c>
+      <c r="T70">
+        <v>6</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>56</v>
+      </c>
+      <c r="W70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <v>2019</v>
+      </c>
+      <c r="C71">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>193.04</v>
+      </c>
+      <c r="E71">
+        <v>102.0582</v>
+      </c>
+      <c r="F71">
+        <v>213</v>
+      </c>
+      <c r="G71">
+        <v>2889</v>
+      </c>
+      <c r="H71">
+        <v>13.56338028169014</v>
+      </c>
+      <c r="I71">
+        <v>22</v>
+      </c>
+      <c r="J71">
         <v>37</v>
       </c>
-      <c r="J69">
-        <v>38</v>
-      </c>
-      <c r="K69">
-        <v>4.5</v>
-      </c>
-      <c r="L69">
-        <v>39</v>
-      </c>
-      <c r="M69">
-        <v>22</v>
-      </c>
-      <c r="N69">
-        <v>125</v>
-      </c>
-      <c r="O69">
-        <v>6.65</v>
-      </c>
-      <c r="P69">
-        <v>4.26</v>
-      </c>
-      <c r="Q69">
-        <v>51</v>
-      </c>
-      <c r="R69">
-        <v>61.9</v>
-      </c>
-      <c r="S69">
-        <v>2.4</v>
-      </c>
-      <c r="T69">
-        <v>12</v>
-      </c>
-      <c r="U69">
-        <v>1.137931034482759</v>
-      </c>
-      <c r="V69">
-        <v>34.81034482758621</v>
-      </c>
-      <c r="W69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70">
-        <v>2018</v>
-      </c>
-      <c r="C70">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>177.8</v>
-      </c>
-      <c r="E70">
-        <v>91.171992</v>
-      </c>
-      <c r="F70">
-        <v>234</v>
-      </c>
-      <c r="G70">
-        <v>2856</v>
-      </c>
-      <c r="H70">
-        <v>12.2051282051282</v>
-      </c>
-      <c r="I70">
-        <v>26</v>
-      </c>
-      <c r="J70">
-        <v>39</v>
-      </c>
-      <c r="K70">
-        <v>4.47</v>
-      </c>
-      <c r="L70">
-        <v>35.5</v>
-      </c>
-      <c r="M70">
-        <v>20</v>
-      </c>
-      <c r="N70">
-        <v>115</v>
-      </c>
-      <c r="O70">
-        <v>7.09</v>
-      </c>
-      <c r="P70">
-        <v>4.45</v>
-      </c>
-      <c r="Q70">
-        <v>47</v>
-      </c>
-      <c r="R70">
-        <v>74.2</v>
-      </c>
-      <c r="S70">
-        <v>6.6</v>
-      </c>
-      <c r="T70">
-        <v>33</v>
-      </c>
-      <c r="U70">
-        <v>1.137931034482759</v>
-      </c>
-      <c r="V70">
-        <v>34.81034482758621</v>
-      </c>
-      <c r="W70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="A71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71">
-        <v>2018</v>
-      </c>
-      <c r="C71">
-        <v>22</v>
-      </c>
-      <c r="D71">
-        <v>182.88</v>
-      </c>
-      <c r="E71">
-        <v>84.368112</v>
-      </c>
-      <c r="F71">
-        <v>163</v>
-      </c>
-      <c r="G71">
-        <v>2256</v>
-      </c>
-      <c r="H71">
-        <v>13.84049079754601</v>
-      </c>
-      <c r="I71">
-        <v>24</v>
-      </c>
-      <c r="J71">
-        <v>52</v>
-      </c>
       <c r="K71">
-        <v>4.486705882352942</v>
+        <v>4.53</v>
       </c>
       <c r="L71">
-        <v>36.47945205479452</v>
+        <v>38.5</v>
       </c>
       <c r="M71">
-        <v>15.703125</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>123.1388888888889</v>
+        <v>122</v>
       </c>
       <c r="O71">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P71">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q71">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="R71">
-        <v>68.3</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U71">
-        <v>1.137931034482759</v>
+        <v>1</v>
       </c>
       <c r="V71">
-        <v>34.81034482758621</v>
+        <v>40</v>
       </c>
       <c r="W71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B72">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C72">
         <v>22</v>
       </c>
       <c r="D72">
-        <v>190.5</v>
+        <v>182.88</v>
       </c>
       <c r="E72">
-        <v>98.883056</v>
+        <v>92.532768000000004</v>
       </c>
       <c r="F72">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="G72">
-        <v>3220</v>
+        <v>2019</v>
       </c>
       <c r="H72">
-        <v>16.51282051282051</v>
+        <v>16.152000000000001</v>
       </c>
       <c r="I72">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J72">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K72">
-        <v>4.54</v>
+        <v>4.51</v>
       </c>
       <c r="L72">
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="M72">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N72">
         <v>124</v>
       </c>
       <c r="O72">
-        <v>6.57</v>
+        <v>6.88</v>
       </c>
       <c r="P72">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="Q72">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="R72">
-        <v>71.2</v>
+        <v>67</v>
       </c>
       <c r="S72">
-        <v>4.8</v>
+        <v>1.25</v>
       </c>
       <c r="T72">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U72">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>34.81034482758621</v>
+        <v>32</v>
       </c>
       <c r="W72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B73">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>182.88</v>
       </c>
       <c r="E73">
-        <v>85.728888</v>
+        <v>94.347136000000006</v>
       </c>
       <c r="F73">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="G73">
-        <v>2781</v>
+        <v>1768</v>
       </c>
       <c r="H73">
-        <v>12.41517857142857</v>
+        <v>12.36363636363636</v>
       </c>
       <c r="I73">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J73">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>4.43</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N73">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O73">
-        <v>6.88</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P73">
-        <v>4.41</v>
+        <v>4.03</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="R73">
-        <v>64.3</v>
+        <v>60.8</v>
       </c>
       <c r="S73">
-        <v>5.2</v>
+        <v>2.25</v>
       </c>
       <c r="T73">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="U73">
-        <v>1.137931034482759</v>
+        <v>1</v>
       </c>
       <c r="V73">
-        <v>34.81034482758621</v>
+        <v>32</v>
       </c>
       <c r="W73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>182.88</v>
       </c>
       <c r="E74">
-        <v>95.25431999999999</v>
+        <v>39.708920575552</v>
       </c>
       <c r="F74">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G74">
-        <v>2027</v>
+        <v>2404</v>
       </c>
       <c r="H74">
-        <v>13.88356164383562</v>
+        <v>15.119496855345909</v>
       </c>
       <c r="I74">
         <v>17</v>
       </c>
       <c r="J74">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K74">
-        <v>4.42</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L74">
-        <v>39.5</v>
+        <v>36.5</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>15.703125</v>
       </c>
       <c r="N74">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O74">
-        <v>6.95</v>
+        <v>7.28</v>
       </c>
       <c r="P74">
-        <v>4.07</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="R74">
-        <v>88.3</v>
+        <v>55.1</v>
       </c>
       <c r="S74">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="U74">
-        <v>1.137931034482759</v>
+        <v>1</v>
       </c>
       <c r="V74">
-        <v>34.81034482758621</v>
+        <v>40</v>
       </c>
       <c r="W74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C75">
         <v>22</v>
       </c>
       <c r="D75">
-        <v>180.34</v>
+        <v>185.42</v>
       </c>
       <c r="E75">
-        <v>92.079176</v>
+        <v>42.795106112512002</v>
       </c>
       <c r="F75">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="G75">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="H75">
-        <v>11.11764705882353</v>
+        <v>16.08602150537634</v>
       </c>
       <c r="I75">
         <v>13</v>
       </c>
       <c r="J75">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K75">
-        <v>4.55</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="L75">
-        <v>33.5</v>
+        <v>38.5</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N75">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O75">
-        <v>6.91</v>
+        <v>7.2</v>
       </c>
       <c r="P75">
-        <v>4.19</v>
+        <v>4.33</v>
       </c>
       <c r="Q75">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="R75">
-        <v>54.1</v>
+        <v>68</v>
       </c>
       <c r="S75">
-        <v>0.4</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U75">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>34.81034482758621</v>
+        <v>22</v>
       </c>
       <c r="W75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -6040,67 +6058,67 @@
         <v>21</v>
       </c>
       <c r="D76">
-        <v>195.58</v>
+        <v>175.26</v>
       </c>
       <c r="E76">
-        <v>103.418976</v>
+        <v>86.182479999999998</v>
       </c>
       <c r="F76">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="G76">
-        <v>957</v>
+        <v>1226</v>
       </c>
       <c r="H76">
-        <v>14.72307692307692</v>
+        <v>9.6535433070866148</v>
       </c>
       <c r="I76">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K76">
-        <v>4.68</v>
+        <v>4.53</v>
       </c>
       <c r="L76">
-        <v>31</v>
+        <v>34.5</v>
       </c>
       <c r="M76">
-        <v>15.703125</v>
+        <v>13</v>
       </c>
       <c r="N76">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O76">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P76">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q76">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="R76">
-        <v>69.59999999999999</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U76">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V76">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -6114,7 +6132,7 @@
         <v>177.8</v>
       </c>
       <c r="E77">
-        <v>83.007336</v>
+        <v>83.007335999999995</v>
       </c>
       <c r="F77">
         <v>243</v>
@@ -6132,7 +6150,7 @@
         <v>31</v>
       </c>
       <c r="K77">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="L77">
         <v>35.5</v>
@@ -6162,163 +6180,163 @@
         <v>12</v>
       </c>
       <c r="U77">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V77">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C78">
         <v>23</v>
       </c>
       <c r="D78">
-        <v>193.04</v>
+        <v>185.42</v>
       </c>
       <c r="E78">
-        <v>97.975872</v>
+        <v>90.264808000000002</v>
       </c>
       <c r="F78">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="G78">
-        <v>2466</v>
+        <v>1015</v>
       </c>
       <c r="H78">
-        <v>16.89041095890411</v>
+        <v>14.710144927536231</v>
       </c>
       <c r="I78">
         <v>13</v>
       </c>
       <c r="J78">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K78">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
       <c r="L78">
-        <v>34</v>
+        <v>30.5</v>
       </c>
       <c r="M78">
         <v>13</v>
       </c>
       <c r="N78">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O78">
-        <v>7.07</v>
+        <v>7.22</v>
       </c>
       <c r="P78">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="Q78">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="R78">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="S78">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U78">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>34.81034482758621</v>
+        <v>10</v>
       </c>
       <c r="W78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <v>2018</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>190.5</v>
+        <v>182.88</v>
       </c>
       <c r="E79">
-        <v>97.52227999999999</v>
+        <v>83.460927999999996</v>
       </c>
       <c r="F79">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>910</v>
+        <v>232</v>
       </c>
       <c r="H79">
-        <v>14.67741935483871</v>
+        <v>8.2857142857142865</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K79">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="L79">
-        <v>33.5</v>
+        <v>39</v>
       </c>
       <c r="M79">
         <v>15.703125</v>
       </c>
       <c r="N79">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O79">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="P79">
-        <v>4.273137254901961</v>
+        <v>4.25</v>
       </c>
       <c r="Q79">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="R79">
-        <v>53.9</v>
+        <v>67.7</v>
       </c>
       <c r="S79">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U79">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V79">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B80">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C80">
         <v>22</v>
@@ -6327,350 +6345,350 @@
         <v>175.26</v>
       </c>
       <c r="E80">
-        <v>83.460928</v>
+        <v>78.925008000000005</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G80">
-        <v>1175</v>
+        <v>2867</v>
       </c>
       <c r="H80">
-        <v>11.75</v>
+        <v>13.334883720930231</v>
       </c>
       <c r="I80">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J80">
+        <v>45</v>
+      </c>
+      <c r="K80">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L80">
+        <v>34</v>
+      </c>
+      <c r="M80">
+        <v>15</v>
+      </c>
+      <c r="N80">
+        <v>123</v>
+      </c>
+      <c r="O80">
+        <v>6.97</v>
+      </c>
+      <c r="P80">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="Q80">
+        <v>208</v>
+      </c>
+      <c r="R80">
+        <v>55.9</v>
+      </c>
+      <c r="S80">
+        <v>2.25</v>
+      </c>
+      <c r="T80">
+        <v>9</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>50</v>
+      </c>
+      <c r="W80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>2020</v>
+      </c>
+      <c r="C81">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>193.04</v>
+      </c>
+      <c r="E81">
+        <v>45.058308839615997</v>
+      </c>
+      <c r="F81">
+        <v>135</v>
+      </c>
+      <c r="G81">
+        <v>2448</v>
+      </c>
+      <c r="H81">
+        <v>18.133333333333329</v>
+      </c>
+      <c r="I81">
+        <v>27</v>
+      </c>
+      <c r="J81">
+        <v>37</v>
+      </c>
+      <c r="K81">
+        <v>4.54</v>
+      </c>
+      <c r="L81">
+        <v>36.479452054794521</v>
+      </c>
+      <c r="M81">
+        <v>15.703125</v>
+      </c>
+      <c r="N81">
+        <v>123.1388888888889</v>
+      </c>
+      <c r="O81">
+        <v>7.0037254901960777</v>
+      </c>
+      <c r="P81">
+        <v>4.2731372549019611</v>
+      </c>
+      <c r="Q81">
+        <v>33</v>
+      </c>
+      <c r="R81">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="S81">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="T81">
+        <v>26</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
         <v>46</v>
       </c>
-      <c r="K80">
-        <v>4.44</v>
-      </c>
-      <c r="L80">
-        <v>36</v>
-      </c>
-      <c r="M80">
+      <c r="W81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>2019</v>
+      </c>
+      <c r="C82">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>180.34</v>
+      </c>
+      <c r="E82">
+        <v>83.914519999999996</v>
+      </c>
+      <c r="F82">
+        <v>134</v>
+      </c>
+      <c r="G82">
+        <v>1800</v>
+      </c>
+      <c r="H82">
+        <v>13.432835820895519</v>
+      </c>
+      <c r="I82">
         <v>11</v>
       </c>
-      <c r="N80">
-        <v>110</v>
-      </c>
-      <c r="O80">
-        <v>6.72</v>
-      </c>
-      <c r="P80">
-        <v>4.18</v>
-      </c>
-      <c r="Q80">
-        <v>210</v>
-      </c>
-      <c r="R80">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80">
-        <v>10</v>
-      </c>
-      <c r="U80">
-        <v>1.137931034482759</v>
-      </c>
-      <c r="V80">
-        <v>34.81034482758621</v>
-      </c>
-      <c r="W80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
-      <c r="A81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81">
-        <v>2018</v>
-      </c>
-      <c r="C81">
-        <v>22</v>
-      </c>
-      <c r="D81">
-        <v>187.96</v>
-      </c>
-      <c r="E81">
-        <v>89.357624</v>
-      </c>
-      <c r="F81">
-        <v>139</v>
-      </c>
-      <c r="G81">
-        <v>2640</v>
-      </c>
-      <c r="H81">
-        <v>18.99280575539568</v>
-      </c>
-      <c r="I81">
-        <v>18</v>
-      </c>
-      <c r="J81">
-        <v>26</v>
-      </c>
-      <c r="K81">
+      <c r="J82">
+        <v>51</v>
+      </c>
+      <c r="K82">
         <v>4.55</v>
       </c>
-      <c r="L81">
-        <v>37</v>
-      </c>
-      <c r="M81">
-        <v>9</v>
-      </c>
-      <c r="N81">
-        <v>121</v>
-      </c>
-      <c r="O81">
-        <v>6.89</v>
-      </c>
-      <c r="P81">
-        <v>4.23</v>
-      </c>
-      <c r="Q81">
-        <v>208</v>
-      </c>
-      <c r="R81">
-        <v>58.1</v>
-      </c>
-      <c r="S81">
-        <v>1.4</v>
-      </c>
-      <c r="T81">
-        <v>7</v>
-      </c>
-      <c r="U81">
-        <v>1.137931034482759</v>
-      </c>
-      <c r="V81">
-        <v>34.81034482758621</v>
-      </c>
-      <c r="W81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="A82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82">
-        <v>2018</v>
-      </c>
-      <c r="C82">
-        <v>21</v>
-      </c>
-      <c r="D82">
-        <v>195.58</v>
-      </c>
-      <c r="E82">
-        <v>97.06868799999999</v>
-      </c>
-      <c r="F82">
-        <v>92</v>
-      </c>
-      <c r="G82">
-        <v>1484</v>
-      </c>
-      <c r="H82">
-        <v>16.1304347826087</v>
-      </c>
-      <c r="I82">
-        <v>13</v>
-      </c>
-      <c r="J82">
-        <v>26</v>
-      </c>
-      <c r="K82">
-        <v>4.48</v>
-      </c>
       <c r="L82">
-        <v>36.47945205479452</v>
+        <v>36.5</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>15.703125</v>
       </c>
       <c r="N82">
-        <v>123.1388888888889</v>
+        <v>117</v>
       </c>
       <c r="O82">
-        <v>7.003725490196078</v>
+        <v>6.96</v>
       </c>
       <c r="P82">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q82">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="R82">
-        <v>64.2</v>
+        <v>55.2</v>
       </c>
       <c r="S82">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="T82">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U82">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>34.81034482758621</v>
+        <v>3</v>
       </c>
       <c r="W82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B83">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83">
         <v>182.88</v>
       </c>
       <c r="E83">
-        <v>83.460928</v>
+        <v>95.254319999999993</v>
       </c>
       <c r="F83">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G83">
-        <v>232</v>
+        <v>1251</v>
       </c>
       <c r="H83">
-        <v>8.285714285714286</v>
+        <v>16.68</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J83">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>4.5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L83">
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="M83">
-        <v>15.703125</v>
+        <v>18</v>
       </c>
       <c r="N83">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O83">
-        <v>7.03</v>
+        <v>7.01</v>
       </c>
       <c r="P83">
-        <v>4.25</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Q83">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="R83">
-        <v>67.7</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="S83">
+        <v>7.75</v>
+      </c>
+      <c r="T83">
+        <v>31</v>
+      </c>
+      <c r="U83">
         <v>4</v>
       </c>
-      <c r="T83">
-        <v>20</v>
-      </c>
-      <c r="U83">
-        <v>1.137931034482759</v>
-      </c>
       <c r="V83">
-        <v>34.81034482758621</v>
+        <v>63</v>
       </c>
       <c r="W83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B84">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D84">
-        <v>175.26</v>
+        <v>190.5</v>
       </c>
       <c r="E84">
-        <v>86.18248</v>
+        <v>97.522279999999995</v>
       </c>
       <c r="F84">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G84">
-        <v>1226</v>
+        <v>2044</v>
       </c>
       <c r="H84">
-        <v>9.653543307086615</v>
+        <v>15.96875</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J84">
         <v>39</v>
       </c>
       <c r="K84">
-        <v>4.53</v>
+        <v>4.58</v>
       </c>
       <c r="L84">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="M84">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O84">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P84">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q84">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R84">
-        <v>69.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="S84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U84">
-        <v>1.137931034482759</v>
+        <v>1</v>
       </c>
       <c r="V84">
-        <v>34.81034482758621</v>
+        <v>17</v>
       </c>
       <c r="W84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>2018</v>
@@ -6682,277 +6700,280 @@
         <v>187.96</v>
       </c>
       <c r="E85">
-        <v>91.625584</v>
+        <v>92.079176000000004</v>
       </c>
       <c r="F85">
+        <v>168</v>
+      </c>
+      <c r="G85">
+        <v>2748</v>
+      </c>
+      <c r="H85">
+        <v>16.357142857142861</v>
+      </c>
+      <c r="I85">
+        <v>22</v>
+      </c>
+      <c r="J85">
+        <v>37</v>
+      </c>
+      <c r="K85">
+        <v>4.49</v>
+      </c>
+      <c r="L85">
+        <v>37.5</v>
+      </c>
+      <c r="M85">
+        <v>12</v>
+      </c>
+      <c r="N85">
         <v>130</v>
       </c>
-      <c r="G85">
-        <v>2040</v>
-      </c>
-      <c r="H85">
-        <v>15.69230769230769</v>
-      </c>
-      <c r="I85">
-        <v>20</v>
-      </c>
-      <c r="J85">
-        <v>40</v>
-      </c>
-      <c r="K85">
-        <v>4.43</v>
-      </c>
-      <c r="L85">
-        <v>33.5</v>
-      </c>
-      <c r="M85">
-        <v>11</v>
-      </c>
-      <c r="N85">
-        <v>115</v>
-      </c>
       <c r="O85">
-        <v>6.71</v>
+        <v>6.97</v>
       </c>
       <c r="P85">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="Q85">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="R85">
-        <v>55.6</v>
+        <v>69</v>
       </c>
       <c r="S85">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="U85">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V85">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>2018</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>193.04</v>
+        <v>180.34</v>
       </c>
       <c r="E86">
-        <v>93.43995200000001</v>
+        <v>92.079176000000004</v>
       </c>
       <c r="F86">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G86">
-        <v>1832</v>
+        <v>1512</v>
       </c>
       <c r="H86">
-        <v>15.39495798319328</v>
+        <v>11.117647058823531</v>
       </c>
       <c r="I86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J86">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K86">
-        <v>4.37</v>
+        <v>4.55</v>
       </c>
       <c r="L86">
-        <v>30.5</v>
+        <v>33.5</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O86">
-        <v>7.003725490196078</v>
+        <v>6.91</v>
       </c>
       <c r="P86">
-        <v>4.273137254901961</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="Q86">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="R86">
-        <v>62.6</v>
+        <v>54.1</v>
       </c>
       <c r="S86">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="T86">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.137931034482759</v>
+        <v>1.1379310344827589</v>
       </c>
       <c r="V86">
-        <v>34.81034482758621</v>
+        <v>34.810344827586214</v>
       </c>
       <c r="W86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B87">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C87">
         <v>22</v>
       </c>
       <c r="D87">
-        <v>187.96</v>
+        <v>185.42</v>
       </c>
       <c r="E87">
-        <v>97.52227999999999</v>
+        <v>42.383614707584002</v>
       </c>
       <c r="F87">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="G87">
-        <v>3777</v>
+        <v>3305</v>
       </c>
       <c r="H87">
-        <v>13.20629370629371</v>
+        <v>15.51643192488263</v>
       </c>
       <c r="I87">
         <v>33</v>
       </c>
       <c r="J87">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>4.44</v>
+        <v>4.7</v>
       </c>
       <c r="L87">
-        <v>40</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>15.703125</v>
       </c>
       <c r="N87">
-        <v>124</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O87">
-        <v>7.08</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P87">
-        <v>4.26</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q87">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="R87">
-        <v>52.7</v>
+        <v>55.4</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="T87">
         <v>5</v>
       </c>
       <c r="U87">
-        <v>1.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>34.81034482758621</v>
+        <v>33</v>
       </c>
       <c r="W87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B88">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C88">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88">
-        <v>195.58</v>
+        <v>185.42</v>
       </c>
       <c r="E88">
-        <v>102.965384</v>
+        <v>41.149140492800001</v>
       </c>
       <c r="F88">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="G88">
-        <v>3360</v>
+        <v>2159</v>
       </c>
       <c r="H88">
-        <v>13.94190871369295</v>
+        <v>12.33714285714286</v>
       </c>
       <c r="I88">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J88">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>4.55</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="L88">
-        <v>38</v>
+        <v>36.479452054794521</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>15.703125</v>
       </c>
       <c r="N88">
-        <v>122</v>
+        <v>123.1388888888889</v>
       </c>
       <c r="O88">
-        <v>7.003725490196078</v>
+        <v>7.0037254901960777</v>
       </c>
       <c r="P88">
-        <v>4.273137254901961</v>
+        <v>4.2731372549019611</v>
       </c>
       <c r="Q88">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="R88">
-        <v>69</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="S88">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="T88">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="U88">
-        <v>1.137931034482759</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>34.81034482758621</v>
+        <v>44</v>
       </c>
       <c r="W88">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W88">
+    <sortCondition ref="A2:A88"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>